--- a/spreadsheet/macrofree/datasecurity_checklist.en.xlsx
+++ b/spreadsheet/macrofree/datasecurity_checklist.en.xlsx
@@ -1101,18 +1101,18 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Data Protection</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr"/>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Use managed identity to authenticate to the services</t>
+          <t>Encrypt sensitive data in transit</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>Use Microsoft Entra ID  as the default authentication method to control your data plane access.</t>
+          <t>No additional configurations are required as this is enabled on a default deployment.</t>
         </is>
       </c>
       <c r="E9" s="21" t="inlineStr">
@@ -1128,7 +1128,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/synapse-analytics/synapse-service-identity?context=%2Fazure%2Fsynapse-analytics%2Fcontext%2Fcontext</t>
+          <t>https://learn.microsoft.com/azure/event-hubs/transport-layer-security-configure-minimum-version</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1136,7 +1136,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>cd289bed-6b17-4cb8-8454-61e1aee3453a</t>
+          <t>21d41d25-00c8-417b-b9ea-c41fd3390798</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1153,17 +1153,17 @@
       <c r="B10" s="21" t="inlineStr"/>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Separate and limit highly privileged/administrative users and enable MFA and conditional policies</t>
+          <t>Use managed identity to authenticate to the services</t>
         </is>
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>If not required for routine administrative operations, disable or restrict any local admin accounts for only emergency use.</t>
+          <t>Use Microsoft Entra ID  as the default authentication method to control your data plane access.</t>
         </is>
       </c>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1172,13 +1172,17 @@
         </is>
       </c>
       <c r="G10" s="21" t="n"/>
-      <c r="H10" s="15" t="n"/>
+      <c r="H10" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/synapse-analytics/synapse-service-identity?context=%2Fazure%2Fsynapse-analytics%2Fcontext%2Fcontext</t>
+        </is>
+      </c>
       <c r="I10" s="15" t="n"/>
       <c r="J10" s="22" t="n"/>
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>ec823923-7a15-42d6-ac5e-402925388e5d</t>
+          <t>cd289bed-6b17-4cb8-8454-61e1aee3453a</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1189,20 +1193,16 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Data Protection</t>
         </is>
       </c>
       <c r="B11" s="21" t="inlineStr"/>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Use Azure RBAC to control access on storage and Synapse RBAC to control access on workspace level depending on the personas of the team to fine grain the access on data and compute</t>
-        </is>
-      </c>
-      <c r="D11" s="21" t="inlineStr">
-        <is>
-          <t>Azure Synapse also includes Synapse role-based access control (RBAC) roles to manage different aspects of Synapse Studio. Leverage these built-in roles to assign permissions to users, groups, or other security principals to manage who can Publish code artifacts and list or access published code artifacts,Execute code on Apache Spark pools and integration runtimes,Access linked (data) services that are protected by credentials,Monitor or cancel job executions, review job output and execution logs.</t>
-        </is>
-      </c>
+          <t>Enable data at rest encryption by default</t>
+        </is>
+      </c>
+      <c r="D11" s="21" t="n"/>
       <c r="E11" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -1214,17 +1214,13 @@
         </is>
       </c>
       <c r="G11" s="21" t="n"/>
-      <c r="H11" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/synapse-analytics/security/synapse-workspace-understand-what-role-you-need</t>
-        </is>
-      </c>
+      <c r="H11" s="15" t="n"/>
       <c r="I11" s="15" t="n"/>
       <c r="J11" s="22" t="n"/>
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>a9c27d9c-42bb-46cd-8c79-99a246f3389a</t>
+          <t>bc288bec-6a17-4ca7-8444-51e1add3452a</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1241,13 +1237,17 @@
       <c r="B12" s="21" t="inlineStr"/>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Implement RLS, CLS and data masking on sql workloads in dedicated sql pool to add additional layer of security</t>
-        </is>
-      </c>
-      <c r="D12" s="21" t="n"/>
+          <t>Separate and limit highly privileged/administrative users and enable MFA and conditional policies</t>
+        </is>
+      </c>
+      <c r="D12" s="21" t="inlineStr">
+        <is>
+          <t>If not required for routine administrative operations, disable or restrict any local admin accounts for only emergency use.</t>
+        </is>
+      </c>
       <c r="E12" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1256,17 +1256,13 @@
         </is>
       </c>
       <c r="G12" s="21" t="n"/>
-      <c r="H12" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/sql/relational-databases/security/row-level-security?view=sql-server-ver16&amp;context=%2Fazure%2Fsynapse-analytics%2Fcontext%2Fcontext</t>
-        </is>
-      </c>
+      <c r="H12" s="15" t="n"/>
       <c r="I12" s="15" t="n"/>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>7f42c78e-78cb-46a2-8ad1-a0916e6a8d8f</t>
+          <t>ec823923-7a15-42d6-ac5e-402925388e5d</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1277,18 +1273,18 @@
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="21" t="inlineStr">
         <is>
-          <t>Network Security</t>
+          <t>Data Protection</t>
         </is>
       </c>
       <c r="B13" s="21" t="inlineStr"/>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Use managed vnet workspace to restrict the access over public internet</t>
+          <t>Use customer-managed key option in data at rest encryption when required</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>When you create your Azure Synapse workspace, you can choose to associate it to a Microsoft Azure Virtual Network. The Virtual Network associated with your workspace is managed by Azure Synapse. This Virtual Network is called a Managed workspace Virtual Network. This can be selected when deploying a workspace</t>
+          <t>Use Keyvaults to store your CMK</t>
         </is>
       </c>
       <c r="E13" s="21" t="inlineStr">
@@ -1304,7 +1300,7 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/synapse-analytics/security/synapse-workspace-managed-vnet?view=sql-server-ver16</t>
+          <t>https://learn.microsoft.com/azure/event-hubs/configure-customer-managed-key?tabs=Key-Vault</t>
         </is>
       </c>
       <c r="I13" s="15" t="n"/>
@@ -1312,7 +1308,7 @@
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>e2436b03-36db-455e-8796-0eee0bdf4cc2</t>
+          <t>ec723923-7a15-41c5-ab5e-401915387e5c</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1323,18 +1319,18 @@
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="21" t="inlineStr">
         <is>
-          <t>Network Security</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr"/>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Configure private endpoints to connect to the external services and disable public access</t>
+          <t>Use Azure RBAC to control access on storage and Synapse RBAC to control access on workspace level depending on the personas of the team to fine grain the access on data and compute</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>To protect any sensitive data, it's recommended to disable public access to the workspace endpoints entirely. By doing so, it ensures all workspace endpoints can only be accessed using�private endpoints.</t>
+          <t>Azure Synapse also includes Synapse role-based access control (RBAC) roles to manage different aspects of Synapse Studio. Leverage these built-in roles to assign permissions to users, groups, or other security principals to manage who can Publish code artifacts and list or access published code artifacts,Execute code on Apache Spark pools and integration runtimes,Access linked (data) services that are protected by credentials,Monitor or cancel job executions, review job output and execution logs.</t>
         </is>
       </c>
       <c r="E14" s="21" t="inlineStr">
@@ -1350,7 +1346,7 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/synapse-analytics/security/synapse-workspace-managed-private-endpoints?view=sql-server-ver16</t>
+          <t>https://learn.microsoft.com/azure/synapse-analytics/security/synapse-workspace-understand-what-role-you-need</t>
         </is>
       </c>
       <c r="I14" s="15" t="n"/>
@@ -1358,7 +1354,7 @@
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>efc4d761-c31d-425f-bbb4-7a393a040ed3</t>
+          <t>a9c27d9c-42bb-46cd-8c79-99a246f3389a</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1369,21 +1365,21 @@
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="21" t="inlineStr">
         <is>
-          <t>Network Security</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B15" s="21" t="inlineStr"/>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>If enabling public access highly recommended to configure IP firewall rules</t>
-        </is>
-      </c>
-      <c r="D15" s="21" t="inlineStr">
-        <is>
-          <t>If public access needs to be enabled, it's highly recommended to configure the IP firewall rules to allow inbound connections only from the specified list of public IP addresses.</t>
-        </is>
-      </c>
-      <c r="E15" s="21" t="n"/>
+          <t>Implement RLS, CLS and data masking on sql workloads in dedicated sql pool to add additional layer of security</t>
+        </is>
+      </c>
+      <c r="D15" s="21" t="n"/>
+      <c r="E15" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -1392,7 +1388,7 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/synapse-analytics/security/synapse-workspace-ip-firewall</t>
+          <t>https://learn.microsoft.com/sql/relational-databases/security/row-level-security?view=sql-server-ver16&amp;context=%2Fazure%2Fsynapse-analytics%2Fcontext%2Fcontext</t>
         </is>
       </c>
       <c r="I15" s="15" t="n"/>
@@ -1400,7 +1396,7 @@
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>294798b1-178a-42c5-a46c-eb544350d092</t>
+          <t>7f42c78e-78cb-46a2-8ad1-a0916e6a8d8f</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1417,10 +1413,14 @@
       <c r="B16" s="21" t="inlineStr"/>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Deploy SHIR VMs in your vnet if you are working with sensitive data that shouldn�t leave your corporate network</t>
-        </is>
-      </c>
-      <c r="D16" s="21" t="n"/>
+          <t>Use managed vnet workspace to restrict the access over public internet</t>
+        </is>
+      </c>
+      <c r="D16" s="21" t="inlineStr">
+        <is>
+          <t>When you create your Azure Synapse workspace, you can choose to associate it to a Microsoft Azure Virtual Network. The Virtual Network associated with your workspace is managed by Azure Synapse. This Virtual Network is called a Managed workspace Virtual Network. This can be selected when deploying a workspace</t>
+        </is>
+      </c>
       <c r="E16" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -1434,7 +1434,7 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/data-factory/create-self-hosted-integration-runtime?tabs=data-factory</t>
+          <t>https://learn.microsoft.com/azure/synapse-analytics/security/synapse-workspace-managed-vnet?view=sql-server-ver16</t>
         </is>
       </c>
       <c r="I16" s="15" t="n"/>
@@ -1442,7 +1442,7 @@
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>d234292b-7528-4537-a551-c5bf4e4f1854</t>
+          <t>e2436b03-36db-455e-8796-0eee0bdf4cc2</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1453,23 +1453,23 @@
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="21" t="inlineStr">
         <is>
-          <t>Network Security</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B17" s="21" t="inlineStr"/>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Enable Data Exfiltration Protection (DEP)</t>
+          <t>Use Microsoft Entra ID  as the default authentication method and disable local access wherever possible</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>This can be done only when deploying the workspace, but  Python libraries installed from public repositories like PyPI are not supported. (Think about the limitation before enabling it)</t>
+          <t>Use Microsoft Entra ID  as the default authentication method.</t>
         </is>
       </c>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1478,17 +1478,13 @@
         </is>
       </c>
       <c r="G17" s="21" t="n"/>
-      <c r="H17" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/synapse-analytics/security/how-to-create-a-workspace-with-data-exfiltration-protection</t>
-        </is>
-      </c>
+      <c r="H17" s="15" t="n"/>
       <c r="I17" s="15" t="n"/>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>287d5cdc-126c-4c03-8af5-b1fc6898a535</t>
+          <t>a9c26d9c-42bb-45bd-8c69-99a246e3389a</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1499,18 +1495,18 @@
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="21" t="inlineStr">
         <is>
-          <t>Data Protection</t>
+          <t>Network Security</t>
         </is>
       </c>
       <c r="B18" s="21" t="inlineStr"/>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Data Encryption at rest using Customer managed Keys for workspace</t>
+          <t>Configure private endpoints to connect to the external services and disable public access</t>
         </is>
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>First layer of encryption is done by Microsoft managed keys, you can add a second layer of encryption using Customer managed Keys</t>
+          <t>To protect any sensitive data, it's recommended to disable public access to the workspace endpoints entirely. By doing so, it ensures all workspace endpoints can only be accessed using�private endpoints.</t>
         </is>
       </c>
       <c r="E18" s="21" t="inlineStr">
@@ -1526,7 +1522,7 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/synapse-analytics/security/workspaces-encryption</t>
+          <t>https://learn.microsoft.com/azure/synapse-analytics/security/synapse-workspace-managed-private-endpoints?view=sql-server-ver16</t>
         </is>
       </c>
       <c r="I18" s="15" t="n"/>
@@ -1534,7 +1530,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>e337897e-31b6-47d6-9be5-962a1193846d</t>
+          <t>efc4d761-c31d-425f-bbb4-7a393a040ed3</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1545,18 +1541,18 @@
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="21" t="inlineStr">
         <is>
-          <t>Data Protection</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B19" s="21" t="inlineStr"/>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Data Encryption in transit </t>
+          <t>Use managed identity to authenticate to the services</t>
         </is>
       </c>
       <c r="D19" s="21" t="inlineStr">
         <is>
-          <t>Azure Synapse leverages TLS to ensure data is encrypted in motion. SQL dedicated pools support TLS 1.0, TLS 1.1, and TLS 1.2 versions for encryption wherein Microsoft-provided drivers use TLS 1.2 by default. Serverless SQL pool and Apache Spark pool use TLS 1.2 for all outbound connections.</t>
+          <t>Use Microsoft Entra ID  as the default authentication method.</t>
         </is>
       </c>
       <c r="E19" s="21" t="inlineStr">
@@ -1570,17 +1566,13 @@
         </is>
       </c>
       <c r="G19" s="21" t="n"/>
-      <c r="H19" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/synapse-analytics/guidance/security-white-paper-data-protection#data-in-transit</t>
-        </is>
-      </c>
+      <c r="H19" s="15" t="n"/>
       <c r="I19" s="15" t="n"/>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>697cc391-ed16-4b2d-886f-0a1241bddde6</t>
+          <t>7e42c77d-78cb-46a2-8ad1-9f916e698d8f</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1591,38 +1583,38 @@
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="21" t="inlineStr">
         <is>
-          <t>Data Protection</t>
+          <t>Network Security</t>
         </is>
       </c>
       <c r="B20" s="21" t="inlineStr"/>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Store passwords, secerts and keys in Azure key vault</t>
+          <t>If enabling public access highly recommended to configure IP firewall rules</t>
         </is>
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>Use Keyvaults to store your secrets and credentials</t>
-        </is>
-      </c>
-      <c r="E20" s="21" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
+          <t>If public access needs to be enabled, it's highly recommended to configure the IP firewall rules to allow inbound connections only from the specified list of public IP addresses.</t>
+        </is>
+      </c>
+      <c r="E20" s="21" t="n"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>Not verified</t>
         </is>
       </c>
       <c r="G20" s="21" t="n"/>
-      <c r="H20" s="15" t="n"/>
+      <c r="H20" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/synapse-analytics/security/synapse-workspace-ip-firewall</t>
+        </is>
+      </c>
       <c r="I20" s="15" t="n"/>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>8a477cde-b486-41bc-9bc1-0ae66e25e4d5</t>
+          <t>294798b1-178a-42c5-a46c-eb544350d092</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1631,18 +1623,18 @@
       <c r="P20" s="25" t="n"/>
     </row>
     <row r="21" ht="16.5" customHeight="1">
-      <c r="A21" s="21" t="inlineStr"/>
+      <c r="A21" s="21" t="inlineStr">
+        <is>
+          <t>Identity and Access Management</t>
+        </is>
+      </c>
       <c r="B21" s="21" t="inlineStr"/>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault secrets in pipeline activities</t>
-        </is>
-      </c>
-      <c r="D21" s="21" t="inlineStr">
-        <is>
-          <t>You can store credentials or secret values in an Azure Key Vault and use them during pipeline execution to pass to your activities.</t>
-        </is>
-      </c>
+          <t>Configure conditional access policies to restrict the access on Data plane</t>
+        </is>
+      </c>
+      <c r="D21" s="21" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -1654,17 +1646,13 @@
         </is>
       </c>
       <c r="G21" s="21" t="n"/>
-      <c r="H21" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/data-factory/how-to-use-azure-key-vault-secrets-pipeline-activities</t>
-        </is>
-      </c>
+      <c r="H21" s="15" t="n"/>
       <c r="I21" s="15" t="n"/>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>a3aec2c4-e243-46b0-936d-b55e17960eee</t>
+          <t>adfe27bd-e187-401a-a352-baa9b68a088c</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1675,23 +1663,19 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Network Security</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr"/>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Restrict use of local users whereever necessary</t>
-        </is>
-      </c>
-      <c r="D22" s="21" t="inlineStr">
-        <is>
-          <t>Restrict the use of local authentication methods for data plane access. Instead, use Microsoft Entra ID  as the default authentication method to control your data plane access.</t>
-        </is>
-      </c>
+          <t>Deploy SHIR VMs in your vnet if you are working with sensitive data that shouldn�t leave your corporate network</t>
+        </is>
+      </c>
+      <c r="D22" s="21" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1700,13 +1684,17 @@
         </is>
       </c>
       <c r="G22" s="21" t="n"/>
-      <c r="H22" s="15" t="n"/>
+      <c r="H22" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/data-factory/create-self-hosted-integration-runtime?tabs=data-factory</t>
+        </is>
+      </c>
       <c r="I22" s="15" t="n"/>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>0bdf4cc2-efc4-4d76-8c31-d25ffbb47a39</t>
+          <t>d234292b-7528-4537-a551-c5bf4e4f1854</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1723,17 +1711,17 @@
       <c r="B23" s="21" t="inlineStr"/>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Use managed identity to authenticate to the services</t>
+          <t>Use Azure Key Vaults to store secrets and crendentials.</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>Managed identities eliminate the need to manage credentials. Managed identities provide an identity for the service instance when connecting to resources that support Microsoft Entra authentication.</t>
+          <t>Restrict exposure of keys and secerts</t>
         </is>
       </c>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1742,17 +1730,13 @@
         </is>
       </c>
       <c r="G23" s="21" t="n"/>
-      <c r="H23" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/data-factory/data-factory-service-identity</t>
-        </is>
-      </c>
+      <c r="H23" s="15" t="n"/>
       <c r="I23" s="15" t="n"/>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>3a040ed3-2947-498b-8178-a2c5a46ceb54</t>
+          <t>9a80822b-8eb9-4d1b-a77f-26e5e6beba8e</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1763,23 +1747,23 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Network Security</t>
         </is>
       </c>
       <c r="B24" s="21" t="inlineStr"/>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Separate and limit highly privileged/administrative users and enable MFA and conditional policies</t>
+          <t>Enable Data Exfiltration Protection (DEP)</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>If not required for routine administrative operations, disable or restrict any local admin accounts for only emergency use.</t>
+          <t>This can be done only when deploying the workspace, but  Python libraries installed from public repositories like PyPI are not supported. (Think about the limitation before enabling it)</t>
         </is>
       </c>
       <c r="E24" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1788,13 +1772,17 @@
         </is>
       </c>
       <c r="G24" s="21" t="n"/>
-      <c r="H24" s="15" t="n"/>
+      <c r="H24" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/synapse-analytics/security/how-to-create-a-workspace-with-data-exfiltration-protection</t>
+        </is>
+      </c>
       <c r="I24" s="15" t="n"/>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>4350d092-d234-4292-a752-8537a551c5bf</t>
+          <t>287d5cdc-126c-4c03-8af5-b1fc6898a535</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1805,19 +1793,19 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>Network Security</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr"/>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Disable access over public internet and configure either firewall rules or trusted services rules</t>
+          <t>Separate and limit highly privileged/administrative users</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
       <c r="E25" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1832,7 +1820,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>4e4f1854-287d-45cd-a126-cc032af5b1fc</t>
+          <t>d4f3437c-c336-4d81-9f27-a71efe1b9b5d</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1843,16 +1831,20 @@
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="21" t="inlineStr">
         <is>
-          <t>Network Security</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B26" s="21" t="inlineStr"/>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Deploy SHIR VMs in your vnet if you are working with sensitive data that shouldn�t leave your corporate network</t>
-        </is>
-      </c>
-      <c r="D26" s="21" t="n"/>
+          <t>Authenticate access to Event Hubs resources using shared access signatures (SAS) and restrict local users</t>
+        </is>
+      </c>
+      <c r="D26" s="21" t="inlineStr">
+        <is>
+          <t>When you create an Event Hubs namespace, a policy rule named RootManageSharedAccessKey is automatically created for the namespace. This policy has manage permissions for the entire namespace. It�s recommended that you treat this rule like an administrative root account and don�t use it in your application. You can create additional policy rules in the Configure tab for the namespace in the portal, via PowerShell or Azure CLI. Avoid the usage of local authentication methods or accounts, these should be disabled wherever possible. Instead use Azure AD to authenticate where possible.</t>
+        </is>
+      </c>
       <c r="E26" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -1864,13 +1856,17 @@
         </is>
       </c>
       <c r="G26" s="21" t="n"/>
-      <c r="H26" s="15" t="n"/>
+      <c r="H26" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/event-hubs/authenticate-shared-access-signature</t>
+        </is>
+      </c>
       <c r="I26" s="15" t="n"/>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>6898a535-e337-4897-b31b-67d67be5962a</t>
+          <t>9de0d5d7-21d4-41d2-900c-817bf9eac41f</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1881,18 +1877,18 @@
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="21" t="inlineStr">
         <is>
-          <t>Network Security</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B27" s="21" t="inlineStr"/>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Use managed vnet IR to restrict the access over public internet for Azure Integration Runtime</t>
+          <t xml:space="preserve">Use Azure RBACs to fine grain the access </t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>When you create an Azure integration runtime within a Data Factory managed virtual network, the integration runtime is provisioned with the managed virtual network. It uses private endpoints to securely connect to supported data stores.</t>
+          <t>Use Azure role-based access control (Azure RBAC) to manage Azure resource access through built-in role assignments. Azure RBAC roles can be assigned to users, groups, service principals, and managed identities.</t>
         </is>
       </c>
       <c r="E27" s="21" t="inlineStr">
@@ -1906,12 +1902,16 @@
         </is>
       </c>
       <c r="G27" s="21" t="n"/>
-      <c r="H27" s="15" t="n"/>
+      <c r="H27" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/event-hubs/authorize-access-azure-active-directory</t>
+        </is>
+      </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>1193846d-697c-4c39-8ed1-6b2d186f0a12</t>
+          <t>387e5ced-127d-4d14-8b06-b20c6999a646</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -1922,18 +1922,18 @@
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="21" t="inlineStr">
         <is>
-          <t>Network Security</t>
+          <t>Data Protection</t>
         </is>
       </c>
       <c r="B28" s="21" t="inlineStr"/>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Configure managed private endpoints to connect to resources using managed azure IR</t>
+          <t>Data Encryption at rest using Customer managed Keys for workspace</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>Managed private endpoints are private endpoints created in the Data Factory managed virtual network that establishes a private link to Azure resources. Data Factory manages these private endpoints on your behalf.</t>
+          <t>First layer of encryption is done by Microsoft managed keys, you can add a second layer of encryption using Customer managed Keys</t>
         </is>
       </c>
       <c r="E28" s="21" t="inlineStr">
@@ -1949,14 +1949,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/data-factory/managed-virtual-network-private-endpoint#managed-private-endpoints</t>
+          <t>https://learn.microsoft.com/azure/synapse-analytics/security/workspaces-encryption</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>41bddde6-8a47-47cd-bb48-61bc3bc10ae6</t>
+          <t>e337897e-31b6-47d6-9be5-962a1193846d</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -1965,16 +1965,20 @@
       <c r="P28" s="25" t="n"/>
     </row>
     <row r="29" ht="16.5" customHeight="1">
-      <c r="A29" s="21" t="inlineStr"/>
+      <c r="A29" s="21" t="inlineStr">
+        <is>
+          <t>Networking</t>
+        </is>
+      </c>
       <c r="B29" s="21" t="inlineStr"/>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Configure Private Links to connect to sources in customer Vnet and data factory</t>
+          <t>Disable Public Network Access</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>By using Azure Private Link, you can connect to various platform as a service (PaaS) deployments in Azure via a private endpoint. A private endpoint is a private IP address within a specific virtual network and subnet</t>
+          <t>Service supports disabling public network access either through using service-level IP ACL filtering rule (not NSG or Azure Firewall) or using a 'Disable Public Network Access' toggle switch.</t>
         </is>
       </c>
       <c r="E29" s="21" t="inlineStr">
@@ -1988,16 +1992,12 @@
         </is>
       </c>
       <c r="G29" s="21" t="n"/>
-      <c r="H29" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/data-factory/data-factory-private-link</t>
-        </is>
-      </c>
+      <c r="H29" s="15" t="n"/>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>b47a393a-0804-4272-a479-8b1578b219a4</t>
+          <t>f3389a7e-42c7-48e7-ac06-a62a2194956e</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2014,12 +2014,12 @@
       <c r="B30" s="21" t="inlineStr"/>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Data Encryption at rest by Microsoft managed keys</t>
+          <t xml:space="preserve">Data Encryption in transit </t>
         </is>
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t>This is a default setting</t>
+          <t>Azure Synapse leverages TLS to ensure data is encrypted in motion. SQL dedicated pools support TLS 1.0, TLS 1.1, and TLS 1.2 versions for encryption wherein Microsoft-provided drivers use TLS 1.2 by default. Serverless SQL pool and Apache Spark pool use TLS 1.2 for all outbound connections.</t>
         </is>
       </c>
       <c r="E30" s="21" t="inlineStr">
@@ -2033,12 +2033,16 @@
         </is>
       </c>
       <c r="G30" s="21" t="n"/>
-      <c r="H30" s="15" t="n"/>
+      <c r="H30" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/synapse-analytics/guidance/security-white-paper-data-protection#data-in-transit</t>
+        </is>
+      </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>6ceb5443-5135-4922-9442-93bb628637a5</t>
+          <t>697cc391-ed16-4b2d-886f-0a1241bddde6</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2049,20 +2053,16 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="21" t="inlineStr">
         <is>
-          <t>Data Protection</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B31" s="21" t="inlineStr"/>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Data Encryption in transit by Microsoft managed keys</t>
-        </is>
-      </c>
-      <c r="D31" s="21" t="inlineStr">
-        <is>
-          <t>This is a default setting</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Use Vnets to isolate traffic over restricted network </t>
+        </is>
+      </c>
+      <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -2079,7 +2079,7 @@
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>5119b08e-8f58-4543-a7e9-cec166cd072a</t>
+          <t>6a8dc4a2-fe27-4b2e-8870-1a1352beedf7</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2096,17 +2096,17 @@
       <c r="B32" s="21" t="inlineStr"/>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Data Encryption in transit by BYOK (Customer managed keys)</t>
+          <t>Store passwords, secerts and keys in Azure key vault</t>
         </is>
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>When you specify a customer-managed key, Data Factory uses�both�the factory system key and the CMK to encrypt customer data. Missing either would result in Deny of Access to data and factory.</t>
+          <t>Use Keyvaults to store your secrets and credentials</t>
         </is>
       </c>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2115,17 +2115,13 @@
         </is>
       </c>
       <c r="G32" s="21" t="n"/>
-      <c r="H32" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/data-factory/enable-customer-managed-key</t>
-        </is>
-      </c>
+      <c r="H32" s="15" t="n"/>
       <c r="I32" s="15" t="n"/>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>f9b241a9-98a5-435e-9378-97e71ca7da8c</t>
+          <t>8a477cde-b486-41bc-9bc1-0ae66e25e4d5</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2136,19 +2132,19 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="21" t="inlineStr">
         <is>
-          <t>Data Protection</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B33" s="21" t="inlineStr"/>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Store passwords, secrets in Azure Key Vault</t>
+          <t>Deploy private endpoints for all Azure resources that support the Private Link feature, to establish a private access point for the resources.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2159,7 +2155,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/data-factory/store-credentials-in-key-vault, https:/learn.microsoft.com/azure/data-factory/how-to-use-azure-key-vault-secrets-pipeline-activities</t>
+          <t>https://learn.microsoft.com/azure/event-hubs/private-link-service</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2167,7 +2163,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>faa62a15-9495-46da-a7dc-3a23267b2258</t>
+          <t>9b488dee-c496-42cc-9cd2-1bf77f26e5e6</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2176,11 +2172,7 @@
       <c r="P33" s="25" t="n"/>
     </row>
     <row r="34" ht="16.5" customHeight="1">
-      <c r="A34" s="21" t="inlineStr">
-        <is>
-          <t>Data Protection</t>
-        </is>
-      </c>
+      <c r="A34" s="21" t="inlineStr"/>
       <c r="B34" s="21" t="inlineStr"/>
       <c r="C34" s="21" t="inlineStr">
         <is>
@@ -2213,7 +2205,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>6f4a1652-bddd-4ea8-a487-cdec4861bc3b</t>
+          <t>a3aec2c4-e243-46b0-936d-b55e17960eee</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2230,12 +2222,12 @@
       <c r="B35" s="21" t="inlineStr"/>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Encrypt credentials for on-premises using SHIR data stores in Azure Data Factory</t>
+          <t>Use Workspace roles to provide access to the users on the data</t>
         </is>
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>You can encrypt and store credentials for any of your on-premises data stores (linked services with sensitive information) on a machine with self-hosted integration runtime.</t>
+          <t>Fabric controls data access using workspaces. In workspaces, data appears in the form of Fabric items, and users can't view or use items (data) unless you give them access to the workspace. You can find more information about workspace and item permissions, in Permission model.</t>
         </is>
       </c>
       <c r="E35" s="21" t="inlineStr">
@@ -2251,7 +2243,7 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/data-factory/encrypt-credentials-self-hosted-integration-runtime</t>
+          <t>https://learn.microsoft.com/fabric/security/permission-model</t>
         </is>
       </c>
       <c r="I35" s="15" t="n"/>
@@ -2259,7 +2251,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>c14aeb7e-66e8-4d9a-9bec-218e6436b173</t>
+          <t>b3bed3d5-f353-47c1-946d-c56028a71ffe</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2270,16 +2262,20 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Data Protection</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr"/>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Define roles and responsibilities to manage Microsoft Purview in control plane and data plane</t>
-        </is>
-      </c>
-      <c r="D36" s="21" t="n"/>
+          <t xml:space="preserve">Use RBAC on Onelake to provide fine grain access on the data in Tables/Files Onelake </t>
+        </is>
+      </c>
+      <c r="D36" s="21" t="inlineStr">
+        <is>
+          <t>OneLake RBAC uses role assignments to apply permissions to its members.</t>
+        </is>
+      </c>
       <c r="E36" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -2291,13 +2287,17 @@
         </is>
       </c>
       <c r="G36" s="21" t="n"/>
-      <c r="H36" s="15" t="n"/>
+      <c r="H36" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fabric/onelake/security/data-access-control-model</t>
+        </is>
+      </c>
       <c r="I36" s="15" t="n"/>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>6db55f57-9603-4334-adf9-cc23418db612</t>
+          <t>1bd05dd2-e0d5-4d77-8d41-e3611cc57b4a</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2308,18 +2308,18 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Data Protection</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr"/>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Define roles and tasks required to deploy and manage Microsoft Purview inside an Azure subscription (control plane)</t>
+          <t>When using shortcuts the user identity of the user should have access on the target location of the shortcut as well</t>
         </is>
       </c>
       <c r="D37" s="21" t="inlineStr">
         <is>
-          <t>Use Azure RBACs for this</t>
+          <t>Take into account the access of the user at both target and source location of the shortcut</t>
         </is>
       </c>
       <c r="E37" s="21" t="inlineStr">
@@ -2335,15 +2335,19 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/best-practices</t>
-        </is>
-      </c>
-      <c r="I37" s="15" t="n"/>
+          <t>https://learn.microsoft.com/fabric/onelake/security/data-access-control-model#shortcuts</t>
+        </is>
+      </c>
+      <c r="I37" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>8126504b-b47a-4393-a080-427294798b15</t>
+          <t>4b1410d4-3958-498c-8288-b3c6a57cfc64</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2354,18 +2358,18 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Data Protection</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr"/>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Define roles and task needed to perform data management and governance using Microsoft Purview. (Data plane for Data Map and Data Catalog.)</t>
+          <t>Restrict providing workspace level role to users instead share an item only to the users</t>
         </is>
       </c>
       <c r="D38" s="21" t="inlineStr">
         <is>
-          <t>Use Microsoft Purview roles for this.</t>
+          <t>Not all users need to have access on the entire workspace using roles so instead restrict giving roles on the entire workspace and only share the item to the user using share item feature or managing permission in Fabric</t>
         </is>
       </c>
       <c r="E38" s="21" t="inlineStr">
@@ -2381,15 +2385,19 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/purview/classic-data-governance-permissions#roles,  https://learn.microsoft.com/azure/role-based-access-control/best-practices</t>
-        </is>
-      </c>
-      <c r="I38" s="15" t="n"/>
+          <t>https://learn.microsoft.com/fabric/get-started/share-items</t>
+        </is>
+      </c>
+      <c r="I38" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>78b219a4-6ceb-4544-9513-5922744293bb</t>
+          <t>4451e1a3-d345-43a3-a763-9637a552d5c1</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2400,16 +2408,20 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Data Protection</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr"/>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Assign roles to Microsoft Entra groups instead of assigning roles to individual users.</t>
-        </is>
-      </c>
-      <c r="D39" s="21" t="n"/>
+          <t>Limit access to the data by defining RLS, CLS and dynamic data masking on Warehouse and SQL analytics endpoints</t>
+        </is>
+      </c>
+      <c r="D39" s="21" t="inlineStr">
+        <is>
+          <t>Use features like RLS, CLS and Dynamic data masking to enhance your data security requirements on sql workloads.</t>
+        </is>
+      </c>
       <c r="E39" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -2421,13 +2433,21 @@
         </is>
       </c>
       <c r="G39" s="21" t="n"/>
-      <c r="H39" s="15" t="n"/>
-      <c r="I39" s="15" t="n"/>
+      <c r="H39" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fabric/data-warehouse/tutorial-row-level-security</t>
+        </is>
+      </c>
+      <c r="I39" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>628637a5-5119-4b08-b8f5-854387e9cec1</t>
+          <t>5e401965-387e-45ce-b127-dd142b06b20c</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2438,16 +2458,20 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Data Protection</t>
         </is>
       </c>
       <c r="B40" s="21" t="inlineStr"/>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Use Azure�Active Directory Entitlement Management�to map user access to Microsoft Entra groups using Access Packages.</t>
-        </is>
-      </c>
-      <c r="D40" s="21" t="n"/>
+          <t>Limit access to the data by defining RLS and OLS on semantic models in Power BI</t>
+        </is>
+      </c>
+      <c r="D40" s="21" t="inlineStr">
+        <is>
+          <t>Use features like RLS and OLS on Power BI to have more security features on semantic models</t>
+        </is>
+      </c>
       <c r="E40" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -2461,15 +2485,19 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/governance/entitlement-management-overview</t>
-        </is>
-      </c>
-      <c r="I40" s="15" t="n"/>
+          <t>https://learn.microsoft.com/fabric/security/service-admin-row-level-security</t>
+        </is>
+      </c>
+      <c r="I40" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>66cd072a-f9b2-441a-a98a-535e737897e7</t>
+          <t>6999a646-f338-49a7-b42c-78e78c06a62a</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2480,19 +2508,23 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Data Protection</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr"/>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Enforce multifactor authentication for Microsoft Purview users, especially, for users with privileged roles such as collection admins, data source admins or data curators.</t>
-        </is>
-      </c>
-      <c r="D41" s="21" t="n"/>
+          <t>Encrypt Data at rest</t>
+        </is>
+      </c>
+      <c r="D41" s="21" t="inlineStr">
+        <is>
+          <t>In Fabric, all data that is stored in OneLake is encrypted at rest</t>
+        </is>
+      </c>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2502,12 +2534,16 @@
       </c>
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="n"/>
-      <c r="I41" s="15" t="n"/>
+      <c r="I41" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>1ca7da8c-faa6-42a1-9949-56da97dc3a23</t>
+          <t>2194956e-6a8d-4c4a-8fe2-7b2e28701a13</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2518,19 +2554,23 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Data Protection</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr"/>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Use Microsoft Entra ID to provide authentication and authorization to all users, security groups registered in Entra, service principal and managed identities inside collections in Microsoft Purview</t>
-        </is>
-      </c>
-      <c r="D42" s="21" t="n"/>
+          <t>Encrypt data in transit</t>
+        </is>
+      </c>
+      <c r="D42" s="21" t="inlineStr">
+        <is>
+          <t>Data in transit across the public internet between Microsoft services is always encrypted with at least TLS 1.2. Fabric negotiates to TLS 1.3 whenever possible.</t>
+        </is>
+      </c>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2540,12 +2580,16 @@
       </c>
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="n"/>
-      <c r="I42" s="15" t="n"/>
+      <c r="I42" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J42" s="22" t="n"/>
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>267b2258-6f4a-4165-8bdd-dea8a487cdec</t>
+          <t>52beedf7-9b48-48de-bc49-62cc3cd21bf7</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2562,10 +2606,14 @@
       <c r="B43" s="21" t="inlineStr"/>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Define Least Privilege model and Lower exposure of privileged accounts</t>
-        </is>
-      </c>
-      <c r="D43" s="21" t="n"/>
+          <t>Restrict use of local users whereever necessary</t>
+        </is>
+      </c>
+      <c r="D43" s="21" t="inlineStr">
+        <is>
+          <t>Restrict the use of local authentication methods for data plane access. Instead, use Microsoft Entra ID  as the default authentication method to control your data plane access.</t>
+        </is>
+      </c>
       <c r="E43" s="21" t="inlineStr">
         <is>
           <t>High</t>
@@ -2583,7 +2631,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>4861bc3b-c14a-4eb7-b66e-8d9a3bec218e</t>
+          <t>0bdf4cc2-efc4-4d76-8c31-d25ffbb47a39</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2594,16 +2642,20 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>Network security</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr"/>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Enable�end-to-end network isolation�using Private Link Service. (Microsoft Purview Data Map)</t>
-        </is>
-      </c>
-      <c r="D44" s="21" t="n"/>
+          <t>Use Microsoft Entra ID as default authentication method</t>
+        </is>
+      </c>
+      <c r="D44" s="21" t="inlineStr">
+        <is>
+          <t>No need to do anything. Every request to connect to Fabric is authenticated with Microsoft Entra ID, allowing users to safely connect to Fabric from their corporate office, when working at home, or from a remote location.</t>
+        </is>
+      </c>
       <c r="E44" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -2615,17 +2667,17 @@
         </is>
       </c>
       <c r="G44" s="21" t="n"/>
-      <c r="H44" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/purview/catalog-private-link-end-to-end</t>
-        </is>
-      </c>
-      <c r="I44" s="15" t="n"/>
+      <c r="H44" s="15" t="n"/>
+      <c r="I44" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>6436b173-6db5-45f5-9960-3334bdf9cc23</t>
+          <t>7f26e5e6-b3be-4d3d-9f35-37c1346dc560</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2636,16 +2688,20 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>Network security</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr"/>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Use�Microsoft Purview Firewall�to disable Public access. (Microsoft Purview Data Map)</t>
-        </is>
-      </c>
-      <c r="D45" s="21" t="n"/>
+          <t>Use managed identity to authenticate to the services</t>
+        </is>
+      </c>
+      <c r="D45" s="21" t="inlineStr">
+        <is>
+          <t>Managed identities eliminate the need to manage credentials. Managed identities provide an identity for the service instance when connecting to resources that support Microsoft Entra authentication.</t>
+        </is>
+      </c>
       <c r="E45" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -2659,14 +2715,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/purview/catalog-private-link-end-to-end#firewalls-to-restrict-public-access</t>
+          <t>https://learn.microsoft.com/azure/data-factory/data-factory-service-identity</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>418db612-8126-4504-ab47-a393a0804272</t>
+          <t>3a040ed3-2947-498b-8178-a2c5a46ceb54</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2677,16 +2733,20 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>Network security</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr"/>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Deploy�Network Security Group (NSG) rules�for subnets where Azure data sources private endpoints, Microsoft Purview private endpoints and self-hosted runtime VMs are deployed. (Microsoft Purview Data Map)</t>
-        </is>
-      </c>
-      <c r="D46" s="21" t="n"/>
+          <t>Use workspace identity to authenticate to the services</t>
+        </is>
+      </c>
+      <c r="D46" s="21" t="inlineStr">
+        <is>
+          <t>A Fabric workspace identity is an automatically managed service principal that can be associated with a Fabric workspace. Workspace identities can be created in the workspace settings of any workspace except My workspaces. A workspace identity is automatically assigned the workspace contributor role and has access to workspace items.  Limitation: Write to shortcut destination fails when using workspace identity as the authentication method. Connections with workspace-identity-authentication can only be used in Onelake shortcuts and data pipelines.</t>
+        </is>
+      </c>
       <c r="E46" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -2700,7 +2760,7 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/purview/concept-best-practices-security#use-network-security-groups</t>
+          <t>https://learn.microsoft.com/fabric/security/workspace-identity</t>
         </is>
       </c>
       <c r="I46" s="15" t="n"/>
@@ -2708,7 +2768,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>94798b15-78b2-419a-96ce-b54435135922</t>
+          <t>28a71ffe-1bd0-45dd-8e0d-5d771d41e361</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2719,19 +2779,23 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>Network security</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr"/>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Implement Microsoft Purview with private endpoints managed by a Network Virtual Appliance, such as�Azure Firewall�for network inspection and network filtering. (Microsoft Purview Data Map)</t>
-        </is>
-      </c>
-      <c r="D47" s="21" t="n"/>
+          <t>Separate and limit highly privileged/administrative users and enable MFA and conditional policies</t>
+        </is>
+      </c>
+      <c r="D47" s="21" t="inlineStr">
+        <is>
+          <t>If not required for routine administrative operations, disable or restrict any local admin accounts for only emergency use.</t>
+        </is>
+      </c>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2740,17 +2804,13 @@
         </is>
       </c>
       <c r="G47" s="21" t="n"/>
-      <c r="H47" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/firewall/overview</t>
-        </is>
-      </c>
+      <c r="H47" s="15" t="n"/>
       <c r="I47" s="15" t="n"/>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>744293bb-6286-437a-9511-9b08e8f58543</t>
+          <t>4350d092-d234-4292-a752-8537a551c5bf</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2761,18 +2821,18 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>Network security</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr"/>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Deploy private endpoints for Microsoft Purview accounts to add another layer of security, so only client calls that are originated from within the virtual network are allowed to access the Microsoft Purview account</t>
+          <t>Provide RBAC roles on storage account to the managed identity to make a successful connection</t>
         </is>
       </c>
       <c r="D48" s="21" t="inlineStr">
         <is>
-          <t>This private endpoint is also a prerequisite for the portal private endpoint. The Microsoft Purview�portal�private endpoint is required to enable connectivity to Microsoft Purview governance portal using a private network. Microsoft Purview can scan data sources in Azure or an on-premises environment by using ingestion private endpoints. Limitations on using private endpoints https://learn.microsoft.com/purview/catalog-private-link-troubleshoot</t>
+          <t>Grant the identity permissions on the storage account</t>
         </is>
       </c>
       <c r="E48" s="21" t="inlineStr">
@@ -2788,14 +2848,14 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/purview/concept-best-practices-network</t>
+          <t>https://learn.microsoft.com/fabric/security/workspace-identity-authenticate#step-2-grant-the-identity-permissions-on-the-storage-account</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>87e9cec1-66cd-4072-af9b-241a998a535e</t>
+          <t>1cc57b4a-4b14-410d-9395-898c2288b3c6</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2806,20 +2866,16 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>Network security</t>
+          <t>Network Security</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr"/>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Block public access using Microsoft Purview firewall</t>
-        </is>
-      </c>
-      <c r="D49" s="21" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/purview/catalog-private-link-end-to-end#firewalls-to-restrict-public-access. Limitation to be reviewed: https://learn.microsoft.com/purview/catalog-private-link-troubleshoot</t>
-        </is>
-      </c>
+          <t>Disable access over public internet and configure either firewall rules or trusted services rules</t>
+        </is>
+      </c>
+      <c r="D49" s="21" t="n"/>
       <c r="E49" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -2836,7 +2892,7 @@
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>b7bcdb3b-51eb-42ec-84ed-a6e59d8d9a2e</t>
+          <t>4e4f1854-287d-45cd-a126-cc032af5b1fc</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -2847,16 +2903,20 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>Network security</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr"/>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Use Network Security Groups to filter network traffic to and from Azure resources in an Azure virtual network</t>
-        </is>
-      </c>
-      <c r="D50" s="21" t="n"/>
+          <t xml:space="preserve">Configure trusted workspace access to access storage account behind firewall </t>
+        </is>
+      </c>
+      <c r="D50" s="21" t="inlineStr">
+        <is>
+          <t>Fabric workspaces with a workspace identity can securely read or write to firewall-enabled Azure Data Lake Storage Gen2 accounts through�trusted workspace access�for OneLake shortcuts.</t>
+        </is>
+      </c>
       <c r="E50" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -2870,7 +2930,7 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/private-link/disable-private-endpoint-network-policy, https:/learn.microsoft.com/purview/concept-best-practices-security#use-network-security-groups</t>
+          <t>https://learn.microsoft.com/fabric/security/security-trusted-workspace-access</t>
         </is>
       </c>
       <c r="I50" s="15" t="n"/>
@@ -2878,7 +2938,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>db217e67-6abf-4669-aa48-e5a96f2223ec</t>
+          <t>a57cfc64-4451-4e1a-9d34-53a3c7639637</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -2889,23 +2949,19 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>Data Protection</t>
+          <t>Network Security</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr"/>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">If you have sensitive data that cannot leave the boundary of your on-prem vnet it is highly recommended to use SHIR VMs inside your corporate vnet to extract your metadata </t>
-        </is>
-      </c>
-      <c r="D51" s="21" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/purview/concept-best-practices-security#apply-security-best-practices-for-self-hosted-runtime-vms</t>
-        </is>
-      </c>
+          <t>Deploy SHIR VMs in your vnet if you are working with sensitive data that shouldn�t leave your corporate network</t>
+        </is>
+      </c>
+      <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2920,7 +2976,7 @@
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>e8cb1231-8ca5-4017-b158-e3fb3aa3c2de</t>
+          <t>6898a535-e337-4897-b31b-67d67be5962a</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -2931,18 +2987,18 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>Data Protection</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr"/>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Use Azure RBACs to restrict the access of your storage account (not managed by MS) only to intended users.</t>
+          <t>Use managed vnet option if you have network isolation needs</t>
         </is>
       </c>
       <c r="D52" s="21" t="inlineStr">
         <is>
-          <t>Metadata is extracted and stored in Microsoft Purview Data Map, if you are not using managed storage account for your Purview account they are open to be accessed by all so implement proper RBACs and retrict the access of Data to only intended users. Applicable to Accounts deployed after December 15, 2023 (or deployed using API version 2023-05-01-preview onwards</t>
+          <t>Managed virtual networks are virtual networks that are created and managed by Microsoft Fabric for each Fabric workspace. Managed virtual networks provide network isolation for Fabric Spark workloads, meaning that the compute clusters are deployed in a dedicated network and are no longer part of the shared virtual network. It is only supported for spark workload in Fabric.</t>
         </is>
       </c>
       <c r="E52" s="21" t="inlineStr">
@@ -2956,13 +3012,21 @@
         </is>
       </c>
       <c r="G52" s="21" t="n"/>
-      <c r="H52" s="15" t="n"/>
-      <c r="I52" s="15" t="n"/>
+      <c r="H52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fabric/security/security-managed-vnets-fabric-overview</t>
+        </is>
+      </c>
+      <c r="I52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>7f3165c3-a87a-405b-9a20-9949bda47778</t>
+          <t>a552d5c1-5e40-4196-9387-e5ced127dd14</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -2973,16 +3037,20 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>Data Protection</t>
+          <t>Network Security</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr"/>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Data in rest is encrypted by microsoft managed keys</t>
-        </is>
-      </c>
-      <c r="D53" s="21" t="n"/>
+          <t>Use managed vnet IR to restrict the access over public internet for Azure Integration Runtime</t>
+        </is>
+      </c>
+      <c r="D53" s="21" t="inlineStr">
+        <is>
+          <t>When you create an Azure integration runtime within a Data Factory managed virtual network, the integration runtime is provisioned with the managed virtual network. It uses private endpoints to securely connect to supported data stores.</t>
+        </is>
+      </c>
       <c r="E53" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -2999,7 +3067,7 @@
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>f24d1167-85c2-4fa5-9c56-a948008be7d7</t>
+          <t>1193846d-697c-4c39-8ed1-6b2d186f0a12</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3010,16 +3078,20 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="inlineStr">
         <is>
-          <t>Data Protection</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B54" s="21" t="inlineStr"/>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Data in transit is encrypted by TLS 1.3</t>
-        </is>
-      </c>
-      <c r="D54" s="21" t="n"/>
+          <t>Configure managed private endpoints to access Azure services</t>
+        </is>
+      </c>
+      <c r="D54" s="21" t="inlineStr">
+        <is>
+          <t>Managed private endpoints are feature that allows secure and private access to data sources from Fabric Spark workloads. You cannot use starter pool with managed PE</t>
+        </is>
+      </c>
       <c r="E54" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -3031,13 +3103,21 @@
         </is>
       </c>
       <c r="G54" s="21" t="n"/>
-      <c r="H54" s="15" t="n"/>
-      <c r="I54" s="15" t="n"/>
+      <c r="H54" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fabric/security/security-managed-private-endpoints-overview</t>
+        </is>
+      </c>
+      <c r="I54" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>27f7b9e9-1be1-4f38-aff3-9812bd463cbb</t>
+          <t>6f4a0641-addd-4ea8-a477-cdeb3861bc3b</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3048,19 +3128,23 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="inlineStr">
         <is>
-          <t>Data Protection</t>
+          <t>Network Security</t>
         </is>
       </c>
       <c r="B55" s="21" t="inlineStr"/>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Always use Azure key vaults to store all credentials if not using managed identities or without password need methods</t>
-        </is>
-      </c>
-      <c r="D55" s="21" t="n"/>
+          <t>Configure managed private endpoints to connect to resources using managed azure IR</t>
+        </is>
+      </c>
+      <c r="D55" s="21" t="inlineStr">
+        <is>
+          <t>Managed private endpoints are private endpoints created in the Data Factory managed virtual network that establishes a private link to Azure resources. Data Factory manages these private endpoints on your behalf.</t>
+        </is>
+      </c>
       <c r="E55" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3069,12 +3153,16 @@
         </is>
       </c>
       <c r="G55" s="21" t="n"/>
-      <c r="H55" s="15" t="n"/>
+      <c r="H55" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/data-factory/managed-virtual-network-private-endpoint#managed-private-endpoints</t>
+        </is>
+      </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>bc8ac199-ebb9-41a4-9d90-dae2cc881370</t>
+          <t>41bddde6-8a47-47cd-bb48-61bc3bc10ae6</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3085,16 +3173,20 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="inlineStr">
         <is>
-          <t>Protection against accidential deletion</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B56" s="21" t="inlineStr"/>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Prevent accidental deletion of Microsoft Purview accounts by applying resource Locks</t>
-        </is>
-      </c>
-      <c r="D56" s="21" t="n"/>
+          <t>Configure Private Links to access resources in your own Azure vnet i.e traffic coming in your Fabric environment</t>
+        </is>
+      </c>
+      <c r="D56" s="21" t="inlineStr">
+        <is>
+          <t>Fabric uses a private IP address from your virtual network. The endpoint allows users in your network to communicate with Fabric over the private IP address using private links.</t>
+        </is>
+      </c>
       <c r="E56" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -3106,12 +3198,21 @@
         </is>
       </c>
       <c r="G56" s="21" t="n"/>
-      <c r="H56" s="15" t="n"/>
+      <c r="H56" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fabric/security/security-private-links-use</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>6f7c0cba-fe61-4465-add4-57e927139b82</t>
+          <t>c14aea6e-65d8-4d9a-9aec-218e6436b063</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3120,16 +3221,20 @@
       <c r="P56" s="25" t="n"/>
     </row>
     <row r="57" ht="16.5" customHeight="1">
-      <c r="A57" s="21" t="inlineStr"/>
+      <c r="A57" s="21" t="inlineStr">
+        <is>
+          <t>Networking</t>
+        </is>
+      </c>
       <c r="B57" s="21" t="inlineStr"/>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Plan for a break glass strategy for your Microsoft Entra tenant, Azure subscription and Microsoft Purview accounts to prevent tenant-wide account lockout.</t>
+          <t>Configure Microsoft Entra ID conditional access if a user is trying to access your Fabric environment</t>
         </is>
       </c>
       <c r="D57" s="21" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/purview/concept-best-practices-collections#design-recommendations</t>
+          <t>When a user authenticates access is determined based on a set of policies that might include IP address, location, and managed devices.</t>
         </is>
       </c>
       <c r="E57" s="21" t="inlineStr">
@@ -3145,14 +3250,19 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/entra/identity/role-based-access-control/security-emergency-access</t>
+          <t>https://learn.microsoft.com/fabric/security/security-conditional-access</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>1102cac6-eae0-41e6-b842-e52f4722d928</t>
+          <t>6cb45e57-9603-4324-adf8-cc23318da611</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3163,16 +3273,20 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>Additional security recommendation</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr"/>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Integrate with Microsoft 365 and Microsoft Defender for Cloud</t>
-        </is>
-      </c>
-      <c r="D58" s="21" t="n"/>
+          <t>You can use Azure service tags to enable connections to and from Microsoft Fabric.</t>
+        </is>
+      </c>
+      <c r="D58" s="21" t="inlineStr">
+        <is>
+          <t>In Azure, a service tag is a defined group of IP addresses that is automatically managed, as a group, to minimize the complexity of updates or changes to network security rules.</t>
+        </is>
+      </c>
       <c r="E58" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -3184,12 +3298,21 @@
         </is>
       </c>
       <c r="G58" s="21" t="n"/>
-      <c r="H58" s="15" t="n"/>
+      <c r="H58" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fabric/security/security-service-tags</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>15f51296-5398-4e6d-bd23-7dd142b16c21</t>
+          <t>70265f4b-b46a-4393-af70-317294797b15</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3200,23 +3323,23 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr"/>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Define Least Privilege model and Lower exposure of privileged accounts</t>
+          <t>You can add Fabric URLs to your allowlist</t>
         </is>
       </c>
       <c r="D59" s="21" t="inlineStr">
         <is>
-          <t>Separate admin accounts from normal user accounts.</t>
+          <t>optional</t>
         </is>
       </c>
       <c r="E59" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3225,12 +3348,21 @@
         </is>
       </c>
       <c r="G59" s="21" t="n"/>
-      <c r="H59" s="15" t="n"/>
+      <c r="H59" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fabric/security/fabric-allow-list-urls</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
+          <t>78a219a4-6beb-4544-9502-4922634292bb</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3241,23 +3373,23 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr"/>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Configure single sign-on and unified login. Enable multi-factor authentication.</t>
+          <t>You can add Power BI URLs to your allowlist</t>
         </is>
       </c>
       <c r="D60" s="21" t="inlineStr">
         <is>
-          <t>Azure Databricks supports Microsoft Entra ID conditional access, which allows administrators to control where and when users are permitted to sign in to Azure Databricks. Conditional access policies can restrict sign-in to your corporate network or can require multi-factor authentication (MFA).</t>
+          <t>optional</t>
         </is>
       </c>
       <c r="E60" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3268,14 +3400,19 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/databricks/security/auth/#single-sign-on</t>
+          <t>https://learn.microsoft.com/fabric/security/power-bi-allow-list-urls</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
+          <t>528537a5-4119-4bf8-b8f5-854287d9cdc1</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3286,18 +3423,18 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr"/>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Use token management.</t>
+          <t>Configure and use On-prem data gateway or Vnet data gateway to connect to sources either on prem or behind a virtual network</t>
         </is>
       </c>
       <c r="D61" s="21" t="inlineStr">
         <is>
-          <t>Customers can use the Token Management API or UI controls to enable or disable personal access tokens (PATs) for REST API authentication, limit the users who are allowed to use PATs, set the maximum lifetime for new tokens, and manage existing tokens. Highly-secure customers typically provision a maximum token lifetime for new tokens for a workspace. This feature requires the Premium pricing tier.</t>
+          <t>The data gateway lets you connect your Azure and other data services to Microsoft Fabric and the Power Platform to securely communicate with the data source, execute queries, and transmit results back to the service.</t>
         </is>
       </c>
       <c r="E61" s="21" t="inlineStr">
@@ -3313,14 +3450,14 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/databricks/admin/access-control/tokens</t>
+          <t>https://learn.microsoft.com/data-integration/gateway/service-gateway-install</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>352beee0-79b5-488d-bfc5-972cd4cd21b0</t>
+          <t>56cc071a-e9b1-441a-a889-535e727897e7</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3329,25 +3466,21 @@
       <c r="P61" s="25" t="n"/>
     </row>
     <row r="62" ht="16.5" customHeight="1">
-      <c r="A62" s="21" t="inlineStr">
-        <is>
-          <t>Identity and Access Management</t>
-        </is>
-      </c>
+      <c r="A62" s="21" t="inlineStr"/>
       <c r="B62" s="21" t="inlineStr"/>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Separate admin accounts from normal user accounts</t>
+          <t>Configure Private Links to connect to sources in customer Vnet and data factory</t>
         </is>
       </c>
       <c r="D62" s="21" t="inlineStr">
         <is>
-          <t>If you have Databricks administrators who are also normal users of the Databricks platform (for example, there�s a lead data engineer who administers the platform and also does data engineering work), Databricks recommends creating a separate account for administrative tasks. It�s important to note that as part of the Azure RBAC model, users that are given Contributor or above permissions to the Resource Group for a deployed Azure Databricks workspace automatically become administrators when they login to that workspace. Therefore, the same considerations outlined above should be applied to Azure portal users too.</t>
+          <t>By using Azure Private Link, you can connect to various platform as a service (PaaS) deployments in Azure via a private endpoint. A private endpoint is a private IP address within a specific virtual network and subnet</t>
         </is>
       </c>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3356,12 +3489,16 @@
         </is>
       </c>
       <c r="G62" s="21" t="n"/>
-      <c r="H62" s="15" t="n"/>
+      <c r="H62" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/data-factory/data-factory-private-link</t>
+        </is>
+      </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>77036e5e-6b4b-4fd3-b503-547c1447dc56</t>
+          <t>b47a393a-0804-4272-a479-8b1578b219a4</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3372,18 +3509,18 @@
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Data Protection</t>
         </is>
       </c>
       <c r="B63" s="21" t="inlineStr"/>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>SCIM synchronization of users and groups.</t>
+          <t>Data Encryption at rest by Microsoft managed keys</t>
         </is>
       </c>
       <c r="D63" s="21" t="inlineStr">
         <is>
-          <t>SCIM (System for Cross-domain Identity Management) allows you to sync users and groups from Microsoft Entra ID to Azure Databricks. There are three major benefits of this approach: 1. When you remove a user, the user is automatically removed from Databricks. 2. Users can also be disabled temporarily via SCIM. Customers have used this capability for scenarios where customers believe that an account may be compromised and need to investigate 3. Groups are automatically synchronized Please refer to the documentation for detailed instructions on how to configure SCIM for Azure Databricks. This feature requires the Premium pricing tier</t>
+          <t>This is a default setting</t>
         </is>
       </c>
       <c r="E63" s="21" t="inlineStr">
@@ -3397,17 +3534,13 @@
         </is>
       </c>
       <c r="G63" s="21" t="n"/>
-      <c r="H63" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/databricks/admin/users-groups/scim/</t>
-        </is>
-      </c>
+      <c r="H63" s="15" t="n"/>
       <c r="I63" s="15" t="n"/>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>028a71ff-f1ce-415d-b3f0-d5e872d42e36</t>
+          <t>6ceb5443-5135-4922-9442-93bb628637a5</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3418,18 +3551,18 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Data Protection</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr"/>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Limit cluster creation rights.</t>
+          <t>Data Encryption in transit by Microsoft managed keys</t>
         </is>
       </c>
       <c r="D64" s="21" t="inlineStr">
         <is>
-          <t>Using either cluster policies or the older cluster ACLs, admins can define what users or groups within the organization are able to create clusters. Cluster ACLs allow you to specify which users can attach a notebook to a given cluster. Note that if a user shares a notebook already attached to a standard mode cluster, the recipient will also be able to execute code on that cluster. This does not apply to clusters that enforce user isolation: SQL Warehouses, high concurrency with table ACLs clusters, and high concurrency with credential passthrough clusters. Customers who use Unity Catalog can also enable single-user clusters to enforce isolation clusters.</t>
+          <t>This is a default setting</t>
         </is>
       </c>
       <c r="E64" s="21" t="inlineStr">
@@ -3449,7 +3582,7 @@
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>11cc57b4-a4b1-4410-b43a-58a9c2289b3d</t>
+          <t>5119b08e-8f58-4543-a7e9-cec166cd072a</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3458,21 +3591,25 @@
       <c r="P64" s="25" t="n"/>
     </row>
     <row r="65" ht="16.5" customHeight="1">
-      <c r="A65" s="21" t="inlineStr"/>
+      <c r="A65" s="21" t="inlineStr">
+        <is>
+          <t>Data Protection</t>
+        </is>
+      </c>
       <c r="B65" s="21" t="inlineStr"/>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Restrict workspace admins</t>
+          <t>Data Encryption in transit by BYOK (Customer managed keys)</t>
         </is>
       </c>
       <c r="D65" s="21" t="inlineStr">
         <is>
-          <t>Account admins can configure a workspace setting called RestrictWorkspaceAdmins to restrict workspace admins to only change a job owner to themselves and the job run as setting to a service principal that they have the Service Principal User role on.</t>
+          <t>When you specify a customer-managed key, Data Factory uses�both�the factory system key and the CMK to encrypt customer data. Missing either would result in Deny of Access to data and factory.</t>
         </is>
       </c>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3483,7 +3620,7 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/databricks/admin/workspace-settings/restrict-workspace-admins</t>
+          <t>https://learn.microsoft.com/azure/data-factory/enable-customer-managed-key</t>
         </is>
       </c>
       <c r="I65" s="15" t="n"/>
@@ -3491,7 +3628,7 @@
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>6b57dfc6-5546-41e1-a3e3-453a3c863964</t>
+          <t>f9b241a9-98a5-435e-9378-97e71ca7da8c</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3502,7 +3639,7 @@
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Data Protection</t>
         </is>
       </c>
       <c r="B66" s="21" t="inlineStr"/>
@@ -3511,11 +3648,7 @@
           <t>Store passwords, secrets in Azure Key Vault</t>
         </is>
       </c>
-      <c r="D66" s="21" t="inlineStr">
-        <is>
-          <t>It�s important to note that even if customers use Azure Key Vault to store their secrets, access controls still need to be defined within Azure Databricks. This is because the same service identity is used to retrieve the secret for all users of an Azure Databricks workspace.</t>
-        </is>
-      </c>
+      <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
           <t>High</t>
@@ -3527,12 +3660,16 @@
         </is>
       </c>
       <c r="G66" s="21" t="n"/>
-      <c r="H66" s="15" t="n"/>
+      <c r="H66" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/data-factory/store-credentials-in-key-vault, https:/learn.microsoft.com/azure/data-factory/how-to-use-azure-key-vault-secrets-pipeline-activities</t>
+        </is>
+      </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>8b662d6c-15f5-4129-9539-8e6ded237dd1</t>
+          <t>faa62a15-9495-46da-a7dc-3a23267b2258</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3541,17 +3678,25 @@
       <c r="P66" s="25" t="n"/>
     </row>
     <row r="67" ht="16.5" customHeight="1">
-      <c r="A67" s="21" t="inlineStr"/>
+      <c r="A67" s="21" t="inlineStr">
+        <is>
+          <t>Data Protection</t>
+        </is>
+      </c>
       <c r="B67" s="21" t="inlineStr"/>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Regenerate/rotate keys if using them periodically</t>
-        </is>
-      </c>
-      <c r="D67" s="21" t="n"/>
+          <t>Use Azure Key Vault secrets in pipeline activities</t>
+        </is>
+      </c>
+      <c r="D67" s="21" t="inlineStr">
+        <is>
+          <t>You can store credentials or secret values in an Azure Key Vault and use them during pipeline execution to pass to your activities.</t>
+        </is>
+      </c>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3560,13 +3705,17 @@
         </is>
       </c>
       <c r="G67" s="21" t="n"/>
-      <c r="H67" s="15" t="n"/>
+      <c r="H67" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/data-factory/how-to-use-azure-key-vault-secrets-pipeline-activities</t>
+        </is>
+      </c>
       <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>42b16c21-d799-49a6-96f4-389a8f42c78e</t>
+          <t>6f4a1652-bddd-4ea8-a487-cdec4861bc3b</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3577,18 +3726,18 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Data Protection</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr"/>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Use clusters that support user isolation.</t>
+          <t>Encrypt credentials for on-premises using SHIR data stores in Azure Data Factory</t>
         </is>
       </c>
       <c r="D68" s="21" t="inlineStr">
         <is>
-          <t>Clusters with user isolation include enforcement such that each user runs as a different non-privileged user account on the cluster host. Languages are also limited to those that can be implemented in an isolated manner (SQL and Python), and Spark APIs must be on an allowlist of those we believe to be isolation-safe.</t>
+          <t>You can encrypt and store credentials for any of your on-premises data stores (linked services with sensitive information) on a machine with self-hosted integration runtime.</t>
         </is>
       </c>
       <c r="E68" s="21" t="inlineStr">
@@ -3602,13 +3751,17 @@
         </is>
       </c>
       <c r="G68" s="21" t="n"/>
-      <c r="H68" s="15" t="n"/>
+      <c r="H68" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/data-factory/encrypt-credentials-self-hosted-integration-runtime</t>
+        </is>
+      </c>
       <c r="I68" s="15" t="n"/>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>78c06a73-a22a-4495-9e7a-8dc4a20e27c3</t>
+          <t>c14aeb7e-66e8-4d9a-9bec-218e6436b173</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3625,14 +3778,10 @@
       <c r="B69" s="21" t="inlineStr"/>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Use service principals to run production jobs. Use proper access control for workspace level (ACLs), account level (RBACs) and data level (Unity catalog) security controls</t>
-        </is>
-      </c>
-      <c r="D69" s="21" t="inlineStr">
-        <is>
-          <t>It is against security best practices to tie production workloads to individual user accounts, and so we recommend configuring Service Principals within Databricks. Service Principles separate administrator and user actions from the workload and prevent workloads from being impacted if a user leaves an organization. With Databricks, you can configure jobs to run as service principals and generate Personal Access Tokens for Service Principals.</t>
-        </is>
-      </c>
+          <t>Define roles and responsibilities to manage Microsoft Purview in control plane and data plane</t>
+        </is>
+      </c>
+      <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -3644,17 +3793,13 @@
         </is>
       </c>
       <c r="G69" s="21" t="n"/>
-      <c r="H69" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/databricks/security/auth/access-control/</t>
-        </is>
-      </c>
+      <c r="H69" s="15" t="n"/>
       <c r="I69" s="15" t="n"/>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>e29711b1-352b-4eee-879b-588defc5972c</t>
+          <t>6db55f57-9603-4334-adf9-cc23418db612</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -3665,23 +3810,23 @@
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="21" t="inlineStr">
         <is>
-          <t>Data Protection</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B70" s="21" t="inlineStr"/>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Avoid storing production data in DBFS.</t>
+          <t>Define roles and tasks required to deploy and manage Microsoft Purview inside an Azure subscription (control plane)</t>
         </is>
       </c>
       <c r="D70" s="21" t="inlineStr">
         <is>
-          <t>By default, DBFS is a filesystem that is accessible to all users of the given workspace and can be accessed via API. This is not necessarily a major data exfiltration concern as you can limit access to accessing data via the DBFS API or Databricks  cli using IP access lists or private network access. However, as use of Azure Databricks grows and more users join a workspace, those users would have access to any data stored in DBFS, creating the potential for undesired information sharing. Databricks recommends that our customers do not store production data in DBFS.</t>
+          <t>Use Azure RBACs for this</t>
         </is>
       </c>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3690,13 +3835,17 @@
         </is>
       </c>
       <c r="G70" s="21" t="n"/>
-      <c r="H70" s="15" t="n"/>
+      <c r="H70" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/best-practices</t>
+        </is>
+      </c>
       <c r="I70" s="15" t="n"/>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-7703-46e5-b6b4-bfd3d503547c</t>
+          <t>8126504b-b47a-4393-a080-427294798b15</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -3707,18 +3856,18 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>Data Protection</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr"/>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Encrypt storage and restrict access.</t>
+          <t>Define roles and task needed to perform data management and governance using Microsoft Purview. (Data plane for Data Map and Data Catalog.)</t>
         </is>
       </c>
       <c r="D71" s="21" t="inlineStr">
         <is>
-          <t>For the storage accounts that you manage, it is your responsibility to ensure that the storage accounts are protected according to your requirements. Examples might include:  Encryption with your customer-managed key, Restrict access to trusted networks with a storage firewall, Anonymous public access is not allowed</t>
+          <t>Use Microsoft Purview roles for this.</t>
         </is>
       </c>
       <c r="E71" s="21" t="inlineStr">
@@ -3734,7 +3883,7 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/databricks/security/keys/customer-managed-keys</t>
+          <t>https://learn.microsoft.com/purview/classic-data-governance-permissions#roles,  https://learn.microsoft.com/azure/role-based-access-control/best-practices</t>
         </is>
       </c>
       <c r="I71" s="15" t="n"/>
@@ -3742,7 +3891,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>1447dc56-028a-471f-bf1c-e15dd3f0d5e8</t>
+          <t>78b219a4-6ceb-4544-9513-5922744293bb</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -3753,20 +3902,16 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>Data Protection</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr"/>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Add a customer-managed key for managed services and workspace storage</t>
-        </is>
-      </c>
-      <c r="D72" s="21" t="inlineStr">
-        <is>
-          <t>Add a customer-managed key for select data stored within the Azure Databricks control plane, such as notebooks, secrets, Databricks SQL queries, and Databricks SQL query history and  for the root storage account used for DBFS. Azure Databricks requires access to this key for ongoing operations. You can revoke access to the key to prevent Azure Databricks from accessing encrypted data within the control plane (or in our backups). This is like a �nuclear option� where the workspace ceases to function, but it provides an emergency control for extreme situations. This feature requires the Premium pricing tier.</t>
-        </is>
-      </c>
+          <t>Assign roles to Microsoft Entra groups instead of assigning roles to individual users.</t>
+        </is>
+      </c>
+      <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -3778,17 +3923,13 @@
         </is>
       </c>
       <c r="G72" s="21" t="n"/>
-      <c r="H72" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/databricks/security/keys/customer-managed-keys</t>
-        </is>
-      </c>
+      <c r="H72" s="15" t="n"/>
       <c r="I72" s="15" t="n"/>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>72d42e36-11cc-457b-9a4b-1410e43a58a9</t>
+          <t>628637a5-5119-4b08-b8f5-854387e9cec1</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -3799,20 +3940,16 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr"/>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Enable IP access lists to restrict access to certain IP addresses.</t>
-        </is>
-      </c>
-      <c r="D73" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Configure IP access lists that restrict the IP addresses that can authenticate to Databricks at account console and workspace level by checking if the user or API client is coming from a known good IP address range such as a VPN or office network. Established user sessions do not work if the user moves to a bad IP address, such as when disconnecting from the VPN. </t>
-        </is>
-      </c>
+          <t>Use Azure�Active Directory Entitlement Management�to map user access to Microsoft Entra groups using Access Packages.</t>
+        </is>
+      </c>
+      <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -3826,7 +3963,7 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/databricks/security/network/front-end/ip-access-list</t>
+          <t>https://learn.microsoft.com/azure/active-directory/governance/entitlement-management-overview</t>
         </is>
       </c>
       <c r="I73" s="15" t="n"/>
@@ -3834,7 +3971,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>277de183-b1ac-4252-a9a9-b64608489a8f</t>
+          <t>66cd072a-f9b2-441a-a98a-535e737897e7</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -3845,23 +3982,19 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr"/>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Configure and use Azure Private Link to access Azure resources.</t>
-        </is>
-      </c>
-      <c r="D74" s="21" t="inlineStr">
-        <is>
-          <t>Azure Private Link provides a private network route from one Azure environment to another. Private Link can be configured both between Azure Databricks users and the control plane, and also between the control plane and the data plane. Between Databricks users and the control plane, Private Link provides strong controls that limit the source for inbound requests. If a company already routes traffic through an Azure environment, they can use Private Link so that the communication between users and the Azure Databricks control plane does not traverse public IP addresses. This feature requires the Premium pricing tier. Use Azure Private Link to connect from Azure Databricks to your Azure resources. Not only does Private Link ensure</t>
-        </is>
-      </c>
+          <t>Enforce multifactor authentication for Microsoft Purview users, especially, for users with privileged roles such as collection admins, data source admins or data curators.</t>
+        </is>
+      </c>
+      <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3870,17 +4003,13 @@
         </is>
       </c>
       <c r="G74" s="21" t="n"/>
-      <c r="H74" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/databricks/security/network/classic/private-link</t>
-        </is>
-      </c>
+      <c r="H74" s="15" t="n"/>
       <c r="I74" s="15" t="n"/>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>82db8eb9-d1ba-473b-86a5-a57eba8dd4b3</t>
+          <t>1ca7da8c-faa6-42a1-9949-56da97dc3a23</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -3889,561 +4018,1386 @@
       <c r="P74" s="25" t="n"/>
     </row>
     <row r="75" ht="16.5" customHeight="1">
-      <c r="A75" s="21" t="n"/>
-      <c r="B75" s="21" t="n"/>
-      <c r="C75" s="21" t="n"/>
+      <c r="A75" s="21" t="inlineStr">
+        <is>
+          <t>Identity and Access Management</t>
+        </is>
+      </c>
+      <c r="B75" s="21" t="inlineStr"/>
+      <c r="C75" s="21" t="inlineStr">
+        <is>
+          <t>Use Microsoft Entra ID to provide authentication and authorization to all users, security groups registered in Entra, service principal and managed identities inside collections in Microsoft Purview</t>
+        </is>
+      </c>
       <c r="D75" s="21" t="n"/>
-      <c r="E75" s="21" t="n"/>
+      <c r="E75" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="n"/>
       <c r="I75" s="15" t="n"/>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
-      <c r="L75" s="25" t="n"/>
+      <c r="L75" s="25" t="inlineStr">
+        <is>
+          <t>267b2258-6f4a-4165-8bdd-dea8a487cdec</t>
+        </is>
+      </c>
       <c r="M75" s="25" t="n"/>
       <c r="N75" s="25" t="n"/>
       <c r="O75" s="25" t="n"/>
       <c r="P75" s="25" t="n"/>
     </row>
     <row r="76" ht="16.5" customHeight="1">
-      <c r="A76" s="21" t="n"/>
-      <c r="B76" s="21" t="n"/>
-      <c r="C76" s="21" t="n"/>
+      <c r="A76" s="21" t="inlineStr">
+        <is>
+          <t>Identity and Access Management</t>
+        </is>
+      </c>
+      <c r="B76" s="21" t="inlineStr"/>
+      <c r="C76" s="21" t="inlineStr">
+        <is>
+          <t>Define Least Privilege model and Lower exposure of privileged accounts</t>
+        </is>
+      </c>
       <c r="D76" s="21" t="n"/>
-      <c r="E76" s="21" t="n"/>
+      <c r="E76" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="n"/>
       <c r="I76" s="15" t="n"/>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
-      <c r="L76" s="25" t="n"/>
+      <c r="L76" s="25" t="inlineStr">
+        <is>
+          <t>4861bc3b-c14a-4eb7-b66e-8d9a3bec218e</t>
+        </is>
+      </c>
       <c r="M76" s="25" t="n"/>
       <c r="N76" s="25" t="n"/>
       <c r="O76" s="25" t="n"/>
       <c r="P76" s="25" t="n"/>
     </row>
     <row r="77" ht="16.5" customHeight="1">
-      <c r="A77" s="21" t="n"/>
-      <c r="B77" s="21" t="n"/>
-      <c r="C77" s="21" t="n"/>
+      <c r="A77" s="21" t="inlineStr">
+        <is>
+          <t>Network security</t>
+        </is>
+      </c>
+      <c r="B77" s="21" t="inlineStr"/>
+      <c r="C77" s="21" t="inlineStr">
+        <is>
+          <t>Enable�end-to-end network isolation�using Private Link Service. (Microsoft Purview Data Map)</t>
+        </is>
+      </c>
       <c r="D77" s="21" t="n"/>
-      <c r="E77" s="21" t="n"/>
+      <c r="E77" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G77" s="21" t="n"/>
-      <c r="H77" s="15" t="n"/>
+      <c r="H77" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/purview/catalog-private-link-end-to-end</t>
+        </is>
+      </c>
       <c r="I77" s="15" t="n"/>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
-      <c r="L77" s="25" t="n"/>
+      <c r="L77" s="25" t="inlineStr">
+        <is>
+          <t>6436b173-6db5-45f5-9960-3334bdf9cc23</t>
+        </is>
+      </c>
       <c r="M77" s="25" t="n"/>
       <c r="N77" s="25" t="n"/>
       <c r="O77" s="25" t="n"/>
       <c r="P77" s="25" t="n"/>
     </row>
     <row r="78" ht="16.5" customHeight="1">
-      <c r="A78" s="21" t="n"/>
-      <c r="B78" s="21" t="n"/>
-      <c r="C78" s="21" t="n"/>
+      <c r="A78" s="21" t="inlineStr">
+        <is>
+          <t>Network security</t>
+        </is>
+      </c>
+      <c r="B78" s="21" t="inlineStr"/>
+      <c r="C78" s="21" t="inlineStr">
+        <is>
+          <t>Use�Microsoft Purview Firewall�to disable Public access. (Microsoft Purview Data Map)</t>
+        </is>
+      </c>
       <c r="D78" s="21" t="n"/>
-      <c r="E78" s="21" t="n"/>
+      <c r="E78" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G78" s="21" t="n"/>
-      <c r="H78" s="15" t="n"/>
+      <c r="H78" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/purview/catalog-private-link-end-to-end#firewalls-to-restrict-public-access</t>
+        </is>
+      </c>
       <c r="I78" s="15" t="n"/>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
-      <c r="L78" s="25" t="n"/>
+      <c r="L78" s="25" t="inlineStr">
+        <is>
+          <t>418db612-8126-4504-ab47-a393a0804272</t>
+        </is>
+      </c>
       <c r="M78" s="25" t="n"/>
       <c r="N78" s="25" t="n"/>
       <c r="O78" s="25" t="n"/>
       <c r="P78" s="25" t="n"/>
     </row>
     <row r="79" ht="16.5" customHeight="1">
-      <c r="A79" s="21" t="n"/>
-      <c r="B79" s="21" t="n"/>
-      <c r="C79" s="21" t="n"/>
+      <c r="A79" s="21" t="inlineStr">
+        <is>
+          <t>Network security</t>
+        </is>
+      </c>
+      <c r="B79" s="21" t="inlineStr"/>
+      <c r="C79" s="21" t="inlineStr">
+        <is>
+          <t>Deploy�Network Security Group (NSG) rules�for subnets where Azure data sources private endpoints, Microsoft Purview private endpoints and self-hosted runtime VMs are deployed. (Microsoft Purview Data Map)</t>
+        </is>
+      </c>
       <c r="D79" s="21" t="n"/>
-      <c r="E79" s="21" t="n"/>
+      <c r="E79" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G79" s="21" t="n"/>
-      <c r="H79" s="15" t="n"/>
+      <c r="H79" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/purview/concept-best-practices-security#use-network-security-groups</t>
+        </is>
+      </c>
       <c r="I79" s="15" t="n"/>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
-      <c r="L79" s="25" t="n"/>
+      <c r="L79" s="25" t="inlineStr">
+        <is>
+          <t>94798b15-78b2-419a-96ce-b54435135922</t>
+        </is>
+      </c>
       <c r="M79" s="25" t="n"/>
       <c r="N79" s="25" t="n"/>
       <c r="O79" s="25" t="n"/>
       <c r="P79" s="25" t="n"/>
     </row>
     <row r="80" ht="16.5" customHeight="1">
-      <c r="A80" s="21" t="n"/>
-      <c r="B80" s="21" t="n"/>
-      <c r="C80" s="21" t="n"/>
+      <c r="A80" s="21" t="inlineStr">
+        <is>
+          <t>Network security</t>
+        </is>
+      </c>
+      <c r="B80" s="21" t="inlineStr"/>
+      <c r="C80" s="21" t="inlineStr">
+        <is>
+          <t>Implement Microsoft Purview with private endpoints managed by a Network Virtual Appliance, such as�Azure Firewall�for network inspection and network filtering. (Microsoft Purview Data Map)</t>
+        </is>
+      </c>
       <c r="D80" s="21" t="n"/>
-      <c r="E80" s="21" t="n"/>
+      <c r="E80" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G80" s="21" t="n"/>
-      <c r="H80" s="15" t="n"/>
+      <c r="H80" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/firewall/overview</t>
+        </is>
+      </c>
       <c r="I80" s="15" t="n"/>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
-      <c r="L80" s="25" t="n"/>
+      <c r="L80" s="25" t="inlineStr">
+        <is>
+          <t>744293bb-6286-437a-9511-9b08e8f58543</t>
+        </is>
+      </c>
       <c r="M80" s="25" t="n"/>
       <c r="N80" s="25" t="n"/>
       <c r="O80" s="25" t="n"/>
       <c r="P80" s="25" t="n"/>
     </row>
     <row r="81" ht="16.5" customHeight="1">
-      <c r="A81" s="21" t="n"/>
-      <c r="B81" s="21" t="n"/>
-      <c r="C81" s="21" t="n"/>
-      <c r="D81" s="21" t="n"/>
-      <c r="E81" s="21" t="n"/>
+      <c r="A81" s="21" t="inlineStr">
+        <is>
+          <t>Network security</t>
+        </is>
+      </c>
+      <c r="B81" s="21" t="inlineStr"/>
+      <c r="C81" s="21" t="inlineStr">
+        <is>
+          <t>Deploy private endpoints for Microsoft Purview accounts to add another layer of security, so only client calls that are originated from within the virtual network are allowed to access the Microsoft Purview account</t>
+        </is>
+      </c>
+      <c r="D81" s="21" t="inlineStr">
+        <is>
+          <t>This private endpoint is also a prerequisite for the portal private endpoint. The Microsoft Purview�portal�private endpoint is required to enable connectivity to Microsoft Purview governance portal using a private network. Microsoft Purview can scan data sources in Azure or an on-premises environment by using ingestion private endpoints. Limitations on using private endpoints https://learn.microsoft.com/purview/catalog-private-link-troubleshoot</t>
+        </is>
+      </c>
+      <c r="E81" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G81" s="21" t="n"/>
-      <c r="H81" s="15" t="n"/>
+      <c r="H81" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/purview/concept-best-practices-network</t>
+        </is>
+      </c>
       <c r="I81" s="15" t="n"/>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
-      <c r="L81" s="25" t="n"/>
+      <c r="L81" s="25" t="inlineStr">
+        <is>
+          <t>87e9cec1-66cd-4072-af9b-241a998a535e</t>
+        </is>
+      </c>
       <c r="M81" s="25" t="n"/>
       <c r="N81" s="25" t="n"/>
       <c r="O81" s="25" t="n"/>
       <c r="P81" s="25" t="n"/>
     </row>
     <row r="82" ht="16.5" customHeight="1">
-      <c r="A82" s="21" t="n"/>
-      <c r="B82" s="21" t="n"/>
-      <c r="C82" s="21" t="n"/>
-      <c r="D82" s="21" t="n"/>
-      <c r="E82" s="21" t="n"/>
+      <c r="A82" s="21" t="inlineStr">
+        <is>
+          <t>Network security</t>
+        </is>
+      </c>
+      <c r="B82" s="21" t="inlineStr"/>
+      <c r="C82" s="21" t="inlineStr">
+        <is>
+          <t>Block public access using Microsoft Purview firewall</t>
+        </is>
+      </c>
+      <c r="D82" s="21" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/purview/catalog-private-link-end-to-end#firewalls-to-restrict-public-access. Limitation to be reviewed: https://learn.microsoft.com/purview/catalog-private-link-troubleshoot</t>
+        </is>
+      </c>
+      <c r="E82" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="n"/>
       <c r="I82" s="15" t="n"/>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
-      <c r="L82" s="25" t="n"/>
+      <c r="L82" s="25" t="inlineStr">
+        <is>
+          <t>b7bcdb3b-51eb-42ec-84ed-a6e59d8d9a2e</t>
+        </is>
+      </c>
       <c r="M82" s="25" t="n"/>
       <c r="N82" s="25" t="n"/>
       <c r="O82" s="25" t="n"/>
       <c r="P82" s="25" t="n"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="21" t="n"/>
-      <c r="B83" s="21" t="n"/>
-      <c r="C83" s="21" t="n"/>
+      <c r="A83" s="21" t="inlineStr">
+        <is>
+          <t>Network security</t>
+        </is>
+      </c>
+      <c r="B83" s="21" t="inlineStr"/>
+      <c r="C83" s="21" t="inlineStr">
+        <is>
+          <t>Use Network Security Groups to filter network traffic to and from Azure resources in an Azure virtual network</t>
+        </is>
+      </c>
       <c r="D83" s="21" t="n"/>
-      <c r="E83" s="21" t="n"/>
+      <c r="E83" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G83" s="21" t="n"/>
-      <c r="H83" s="15" t="n"/>
+      <c r="H83" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/private-link/disable-private-endpoint-network-policy, https:/learn.microsoft.com/purview/concept-best-practices-security#use-network-security-groups</t>
+        </is>
+      </c>
       <c r="I83" s="15" t="n"/>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
-      <c r="L83" s="25" t="n"/>
+      <c r="L83" s="25" t="inlineStr">
+        <is>
+          <t>db217e67-6abf-4669-aa48-e5a96f2223ec</t>
+        </is>
+      </c>
       <c r="M83" s="25" t="n"/>
       <c r="N83" s="25" t="n"/>
       <c r="O83" s="25" t="n"/>
       <c r="P83" s="25" t="n"/>
     </row>
     <row r="84" ht="16.5" customHeight="1">
-      <c r="A84" s="21" t="n"/>
-      <c r="B84" s="21" t="n"/>
-      <c r="C84" s="21" t="n"/>
-      <c r="D84" s="21" t="n"/>
-      <c r="E84" s="21" t="n"/>
+      <c r="A84" s="21" t="inlineStr">
+        <is>
+          <t>Data Protection</t>
+        </is>
+      </c>
+      <c r="B84" s="21" t="inlineStr"/>
+      <c r="C84" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If you have sensitive data that cannot leave the boundary of your on-prem vnet it is highly recommended to use SHIR VMs inside your corporate vnet to extract your metadata </t>
+        </is>
+      </c>
+      <c r="D84" s="21" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/purview/concept-best-practices-security#apply-security-best-practices-for-self-hosted-runtime-vms</t>
+        </is>
+      </c>
+      <c r="E84" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="n"/>
       <c r="I84" s="15" t="n"/>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
-      <c r="L84" s="25" t="n"/>
+      <c r="L84" s="25" t="inlineStr">
+        <is>
+          <t>e8cb1231-8ca5-4017-b158-e3fb3aa3c2de</t>
+        </is>
+      </c>
       <c r="M84" s="25" t="n"/>
       <c r="N84" s="25" t="n"/>
       <c r="O84" s="25" t="n"/>
       <c r="P84" s="25" t="n"/>
     </row>
     <row r="85" ht="16.5" customHeight="1">
-      <c r="A85" s="21" t="n"/>
-      <c r="B85" s="21" t="n"/>
-      <c r="C85" s="21" t="n"/>
-      <c r="D85" s="21" t="n"/>
-      <c r="E85" s="21" t="n"/>
+      <c r="A85" s="21" t="inlineStr">
+        <is>
+          <t>Data Protection</t>
+        </is>
+      </c>
+      <c r="B85" s="21" t="inlineStr"/>
+      <c r="C85" s="21" t="inlineStr">
+        <is>
+          <t>Use Azure RBACs to restrict the access of your storage account (not managed by MS) only to intended users.</t>
+        </is>
+      </c>
+      <c r="D85" s="21" t="inlineStr">
+        <is>
+          <t>Metadata is extracted and stored in Microsoft Purview Data Map, if you are not using managed storage account for your Purview account they are open to be accessed by all so implement proper RBACs and retrict the access of Data to only intended users. Applicable to Accounts deployed after December 15, 2023 (or deployed using API version 2023-05-01-preview onwards</t>
+        </is>
+      </c>
+      <c r="E85" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="n"/>
       <c r="I85" s="15" t="n"/>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
-      <c r="L85" s="25" t="n"/>
+      <c r="L85" s="25" t="inlineStr">
+        <is>
+          <t>7f3165c3-a87a-405b-9a20-9949bda47778</t>
+        </is>
+      </c>
       <c r="M85" s="25" t="n"/>
       <c r="N85" s="25" t="n"/>
       <c r="O85" s="25" t="n"/>
       <c r="P85" s="25" t="n"/>
     </row>
     <row r="86" ht="16.5" customHeight="1">
-      <c r="A86" s="21" t="n"/>
-      <c r="B86" s="21" t="n"/>
-      <c r="C86" s="21" t="n"/>
+      <c r="A86" s="21" t="inlineStr">
+        <is>
+          <t>Data Protection</t>
+        </is>
+      </c>
+      <c r="B86" s="21" t="inlineStr"/>
+      <c r="C86" s="21" t="inlineStr">
+        <is>
+          <t>Data in rest is encrypted by microsoft managed keys</t>
+        </is>
+      </c>
       <c r="D86" s="21" t="n"/>
-      <c r="E86" s="21" t="n"/>
+      <c r="E86" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="n"/>
       <c r="I86" s="15" t="n"/>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
-      <c r="L86" s="25" t="n"/>
+      <c r="L86" s="25" t="inlineStr">
+        <is>
+          <t>f24d1167-85c2-4fa5-9c56-a948008be7d7</t>
+        </is>
+      </c>
       <c r="M86" s="25" t="n"/>
       <c r="N86" s="25" t="n"/>
       <c r="O86" s="25" t="n"/>
       <c r="P86" s="25" t="n"/>
     </row>
     <row r="87" ht="16.5" customHeight="1">
-      <c r="A87" s="21" t="n"/>
-      <c r="B87" s="21" t="n"/>
-      <c r="C87" s="21" t="n"/>
+      <c r="A87" s="21" t="inlineStr">
+        <is>
+          <t>Data Protection</t>
+        </is>
+      </c>
+      <c r="B87" s="21" t="inlineStr"/>
+      <c r="C87" s="21" t="inlineStr">
+        <is>
+          <t>Data in transit is encrypted by TLS 1.3</t>
+        </is>
+      </c>
       <c r="D87" s="21" t="n"/>
-      <c r="E87" s="21" t="n"/>
+      <c r="E87" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="n"/>
       <c r="I87" s="15" t="n"/>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
-      <c r="L87" s="25" t="n"/>
+      <c r="L87" s="25" t="inlineStr">
+        <is>
+          <t>27f7b9e9-1be1-4f38-aff3-9812bd463cbb</t>
+        </is>
+      </c>
       <c r="M87" s="25" t="n"/>
       <c r="N87" s="25" t="n"/>
       <c r="O87" s="25" t="n"/>
       <c r="P87" s="25" t="n"/>
     </row>
     <row r="88" ht="16.5" customHeight="1">
-      <c r="A88" s="21" t="n"/>
-      <c r="B88" s="21" t="n"/>
-      <c r="C88" s="21" t="n"/>
+      <c r="A88" s="21" t="inlineStr">
+        <is>
+          <t>Data Protection</t>
+        </is>
+      </c>
+      <c r="B88" s="21" t="inlineStr"/>
+      <c r="C88" s="21" t="inlineStr">
+        <is>
+          <t>Always use Azure key vaults to store all credentials if not using managed identities or without password need methods</t>
+        </is>
+      </c>
       <c r="D88" s="21" t="n"/>
-      <c r="E88" s="21" t="n"/>
+      <c r="E88" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="n"/>
       <c r="I88" s="15" t="n"/>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
-      <c r="L88" s="25" t="n"/>
+      <c r="L88" s="25" t="inlineStr">
+        <is>
+          <t>bc8ac199-ebb9-41a4-9d90-dae2cc881370</t>
+        </is>
+      </c>
       <c r="M88" s="25" t="n"/>
       <c r="N88" s="25" t="n"/>
       <c r="O88" s="25" t="n"/>
       <c r="P88" s="25" t="n"/>
     </row>
     <row r="89" ht="16.5" customHeight="1">
-      <c r="A89" s="21" t="n"/>
-      <c r="B89" s="21" t="n"/>
-      <c r="C89" s="21" t="n"/>
+      <c r="A89" s="21" t="inlineStr">
+        <is>
+          <t>Protection against accidential deletion</t>
+        </is>
+      </c>
+      <c r="B89" s="21" t="inlineStr"/>
+      <c r="C89" s="21" t="inlineStr">
+        <is>
+          <t>Prevent accidental deletion of Microsoft Purview accounts by applying resource Locks</t>
+        </is>
+      </c>
       <c r="D89" s="21" t="n"/>
-      <c r="E89" s="21" t="n"/>
+      <c r="E89" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="n"/>
       <c r="I89" s="15" t="n"/>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
-      <c r="L89" s="25" t="n"/>
+      <c r="L89" s="25" t="inlineStr">
+        <is>
+          <t>6f7c0cba-fe61-4465-add4-57e927139b82</t>
+        </is>
+      </c>
       <c r="M89" s="25" t="n"/>
       <c r="N89" s="25" t="n"/>
       <c r="O89" s="25" t="n"/>
       <c r="P89" s="25" t="n"/>
     </row>
     <row r="90" ht="16.5" customHeight="1">
-      <c r="A90" s="21" t="n"/>
-      <c r="B90" s="21" t="n"/>
-      <c r="C90" s="21" t="n"/>
-      <c r="D90" s="21" t="n"/>
-      <c r="E90" s="21" t="n"/>
+      <c r="A90" s="21" t="inlineStr"/>
+      <c r="B90" s="21" t="inlineStr"/>
+      <c r="C90" s="21" t="inlineStr">
+        <is>
+          <t>Plan for a break glass strategy for your Microsoft Entra tenant, Azure subscription and Microsoft Purview accounts to prevent tenant-wide account lockout.</t>
+        </is>
+      </c>
+      <c r="D90" s="21" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/purview/concept-best-practices-collections#design-recommendations</t>
+        </is>
+      </c>
+      <c r="E90" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G90" s="21" t="n"/>
-      <c r="H90" s="15" t="n"/>
+      <c r="H90" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/entra/identity/role-based-access-control/security-emergency-access</t>
+        </is>
+      </c>
       <c r="I90" s="15" t="n"/>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
-      <c r="L90" s="25" t="n"/>
+      <c r="L90" s="25" t="inlineStr">
+        <is>
+          <t>1102cac6-eae0-41e6-b842-e52f4722d928</t>
+        </is>
+      </c>
       <c r="M90" s="25" t="n"/>
       <c r="N90" s="25" t="n"/>
       <c r="O90" s="25" t="n"/>
       <c r="P90" s="25" t="n"/>
     </row>
     <row r="91" ht="16.5" customHeight="1">
-      <c r="A91" s="21" t="n"/>
-      <c r="B91" s="21" t="n"/>
-      <c r="C91" s="21" t="n"/>
+      <c r="A91" s="21" t="inlineStr">
+        <is>
+          <t>Additional security recommendation</t>
+        </is>
+      </c>
+      <c r="B91" s="21" t="inlineStr"/>
+      <c r="C91" s="21" t="inlineStr">
+        <is>
+          <t>Integrate with Microsoft 365 and Microsoft Defender for Cloud</t>
+        </is>
+      </c>
       <c r="D91" s="21" t="n"/>
-      <c r="E91" s="21" t="n"/>
+      <c r="E91" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="n"/>
       <c r="I91" s="15" t="n"/>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
-      <c r="L91" s="25" t="n"/>
+      <c r="L91" s="25" t="inlineStr">
+        <is>
+          <t>15f51296-5398-4e6d-bd23-7dd142b16c21</t>
+        </is>
+      </c>
       <c r="M91" s="25" t="n"/>
       <c r="N91" s="25" t="n"/>
       <c r="O91" s="25" t="n"/>
       <c r="P91" s="25" t="n"/>
     </row>
     <row r="92" ht="16.5" customHeight="1">
-      <c r="A92" s="21" t="n"/>
-      <c r="B92" s="21" t="n"/>
-      <c r="C92" s="21" t="n"/>
-      <c r="D92" s="21" t="n"/>
-      <c r="E92" s="21" t="n"/>
+      <c r="A92" s="21" t="inlineStr">
+        <is>
+          <t>Identity and Access Management</t>
+        </is>
+      </c>
+      <c r="B92" s="21" t="inlineStr"/>
+      <c r="C92" s="21" t="inlineStr">
+        <is>
+          <t>Define Least Privilege model and Lower exposure of privileged accounts</t>
+        </is>
+      </c>
+      <c r="D92" s="21" t="inlineStr">
+        <is>
+          <t>Separate admin accounts from normal user accounts.</t>
+        </is>
+      </c>
+      <c r="E92" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="n"/>
       <c r="I92" s="15" t="n"/>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
-      <c r="L92" s="25" t="n"/>
+      <c r="L92" s="25" t="inlineStr">
+        <is>
+          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
+        </is>
+      </c>
       <c r="M92" s="25" t="n"/>
       <c r="N92" s="25" t="n"/>
       <c r="O92" s="25" t="n"/>
       <c r="P92" s="25" t="n"/>
     </row>
     <row r="93" ht="16.5" customHeight="1">
-      <c r="A93" s="21" t="n"/>
-      <c r="B93" s="21" t="n"/>
-      <c r="C93" s="21" t="n"/>
-      <c r="D93" s="21" t="n"/>
-      <c r="E93" s="21" t="n"/>
+      <c r="A93" s="21" t="inlineStr">
+        <is>
+          <t>Identity and Access Management</t>
+        </is>
+      </c>
+      <c r="B93" s="21" t="inlineStr"/>
+      <c r="C93" s="21" t="inlineStr">
+        <is>
+          <t>Configure single sign-on and unified login. Enable multi-factor authentication.</t>
+        </is>
+      </c>
+      <c r="D93" s="21" t="inlineStr">
+        <is>
+          <t>Azure Databricks supports Microsoft Entra ID conditional access, which allows administrators to control where and when users are permitted to sign in to Azure Databricks. Conditional access policies can restrict sign-in to your corporate network or can require multi-factor authentication (MFA).</t>
+        </is>
+      </c>
+      <c r="E93" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G93" s="21" t="n"/>
-      <c r="H93" s="15" t="n"/>
+      <c r="H93" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/security/auth/#single-sign-on</t>
+        </is>
+      </c>
       <c r="I93" s="15" t="n"/>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
-      <c r="L93" s="25" t="n"/>
+      <c r="L93" s="25" t="inlineStr">
+        <is>
+          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
+        </is>
+      </c>
       <c r="M93" s="25" t="n"/>
       <c r="N93" s="25" t="n"/>
       <c r="O93" s="25" t="n"/>
       <c r="P93" s="25" t="n"/>
     </row>
     <row r="94" ht="16.5" customHeight="1">
-      <c r="A94" s="21" t="n"/>
-      <c r="B94" s="21" t="n"/>
-      <c r="C94" s="21" t="n"/>
-      <c r="D94" s="21" t="n"/>
-      <c r="E94" s="21" t="n"/>
+      <c r="A94" s="21" t="inlineStr">
+        <is>
+          <t>Identity and Access Management</t>
+        </is>
+      </c>
+      <c r="B94" s="21" t="inlineStr"/>
+      <c r="C94" s="21" t="inlineStr">
+        <is>
+          <t>Use token management.</t>
+        </is>
+      </c>
+      <c r="D94" s="21" t="inlineStr">
+        <is>
+          <t>Customers can use the Token Management API or UI controls to enable or disable personal access tokens (PATs) for REST API authentication, limit the users who are allowed to use PATs, set the maximum lifetime for new tokens, and manage existing tokens. Highly-secure customers typically provision a maximum token lifetime for new tokens for a workspace. This feature requires the Premium pricing tier.</t>
+        </is>
+      </c>
+      <c r="E94" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G94" s="21" t="n"/>
-      <c r="H94" s="15" t="n"/>
+      <c r="H94" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/admin/access-control/tokens</t>
+        </is>
+      </c>
       <c r="I94" s="15" t="n"/>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
-      <c r="L94" s="25" t="n"/>
+      <c r="L94" s="25" t="inlineStr">
+        <is>
+          <t>352beee0-79b5-488d-bfc5-972cd4cd21b0</t>
+        </is>
+      </c>
       <c r="M94" s="25" t="n"/>
       <c r="N94" s="25" t="n"/>
       <c r="O94" s="25" t="n"/>
       <c r="P94" s="25" t="n"/>
     </row>
     <row r="95" ht="16.5" customHeight="1">
-      <c r="A95" s="21" t="n"/>
-      <c r="B95" s="21" t="n"/>
-      <c r="C95" s="21" t="n"/>
-      <c r="D95" s="21" t="n"/>
-      <c r="E95" s="21" t="n"/>
+      <c r="A95" s="21" t="inlineStr">
+        <is>
+          <t>Identity and Access Management</t>
+        </is>
+      </c>
+      <c r="B95" s="21" t="inlineStr"/>
+      <c r="C95" s="21" t="inlineStr">
+        <is>
+          <t>Separate admin accounts from normal user accounts</t>
+        </is>
+      </c>
+      <c r="D95" s="21" t="inlineStr">
+        <is>
+          <t>If you have Databricks administrators who are also normal users of the Databricks platform (for example, there�s a lead data engineer who administers the platform and also does data engineering work), Databricks recommends creating a separate account for administrative tasks. It�s important to note that as part of the Azure RBAC model, users that are given Contributor or above permissions to the Resource Group for a deployed Azure Databricks workspace automatically become administrators when they login to that workspace. Therefore, the same considerations outlined above should be applied to Azure portal users too.</t>
+        </is>
+      </c>
+      <c r="E95" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="n"/>
       <c r="I95" s="15" t="n"/>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
-      <c r="L95" s="25" t="n"/>
+      <c r="L95" s="25" t="inlineStr">
+        <is>
+          <t>77036e5e-6b4b-4fd3-b503-547c1447dc56</t>
+        </is>
+      </c>
       <c r="M95" s="25" t="n"/>
       <c r="N95" s="25" t="n"/>
       <c r="O95" s="25" t="n"/>
       <c r="P95" s="25" t="n"/>
     </row>
     <row r="96" ht="16.5" customHeight="1">
-      <c r="A96" s="21" t="n"/>
-      <c r="B96" s="21" t="n"/>
-      <c r="C96" s="21" t="n"/>
-      <c r="D96" s="21" t="n"/>
-      <c r="E96" s="21" t="n"/>
+      <c r="A96" s="21" t="inlineStr">
+        <is>
+          <t>Identity and Access Management</t>
+        </is>
+      </c>
+      <c r="B96" s="21" t="inlineStr"/>
+      <c r="C96" s="21" t="inlineStr">
+        <is>
+          <t>SCIM synchronization of users and groups.</t>
+        </is>
+      </c>
+      <c r="D96" s="21" t="inlineStr">
+        <is>
+          <t>SCIM (System for Cross-domain Identity Management) allows you to sync users and groups from Microsoft Entra ID to Azure Databricks. There are three major benefits of this approach: 1. When you remove a user, the user is automatically removed from Databricks. 2. Users can also be disabled temporarily via SCIM. Customers have used this capability for scenarios where customers believe that an account may be compromised and need to investigate 3. Groups are automatically synchronized Please refer to the documentation for detailed instructions on how to configure SCIM for Azure Databricks. This feature requires the Premium pricing tier</t>
+        </is>
+      </c>
+      <c r="E96" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G96" s="21" t="n"/>
-      <c r="H96" s="15" t="n"/>
+      <c r="H96" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/admin/users-groups/scim/</t>
+        </is>
+      </c>
       <c r="I96" s="15" t="n"/>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
-      <c r="L96" s="25" t="n"/>
+      <c r="L96" s="25" t="inlineStr">
+        <is>
+          <t>028a71ff-f1ce-415d-b3f0-d5e872d42e36</t>
+        </is>
+      </c>
       <c r="M96" s="25" t="n"/>
       <c r="N96" s="25" t="n"/>
       <c r="O96" s="25" t="n"/>
       <c r="P96" s="25" t="n"/>
     </row>
     <row r="97" ht="16.5" customHeight="1">
-      <c r="A97" s="21" t="n"/>
-      <c r="B97" s="21" t="n"/>
-      <c r="C97" s="21" t="n"/>
-      <c r="D97" s="21" t="n"/>
-      <c r="E97" s="21" t="n"/>
+      <c r="A97" s="21" t="inlineStr">
+        <is>
+          <t>Identity and Access Management</t>
+        </is>
+      </c>
+      <c r="B97" s="21" t="inlineStr"/>
+      <c r="C97" s="21" t="inlineStr">
+        <is>
+          <t>Limit cluster creation rights.</t>
+        </is>
+      </c>
+      <c r="D97" s="21" t="inlineStr">
+        <is>
+          <t>Using either cluster policies or the older cluster ACLs, admins can define what users or groups within the organization are able to create clusters. Cluster ACLs allow you to specify which users can attach a notebook to a given cluster. Note that if a user shares a notebook already attached to a standard mode cluster, the recipient will also be able to execute code on that cluster. This does not apply to clusters that enforce user isolation: SQL Warehouses, high concurrency with table ACLs clusters, and high concurrency with credential passthrough clusters. Customers who use Unity Catalog can also enable single-user clusters to enforce isolation clusters.</t>
+        </is>
+      </c>
+      <c r="E97" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="n"/>
       <c r="I97" s="15" t="n"/>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
-      <c r="L97" s="25" t="n"/>
+      <c r="L97" s="25" t="inlineStr">
+        <is>
+          <t>11cc57b4-a4b1-4410-b43a-58a9c2289b3d</t>
+        </is>
+      </c>
       <c r="M97" s="25" t="n"/>
       <c r="N97" s="25" t="n"/>
       <c r="O97" s="25" t="n"/>
       <c r="P97" s="25" t="n"/>
     </row>
     <row r="98" ht="16.5" customHeight="1">
-      <c r="A98" s="21" t="n"/>
-      <c r="B98" s="21" t="n"/>
-      <c r="C98" s="21" t="n"/>
-      <c r="D98" s="21" t="n"/>
-      <c r="E98" s="21" t="n"/>
+      <c r="A98" s="21" t="inlineStr"/>
+      <c r="B98" s="21" t="inlineStr"/>
+      <c r="C98" s="21" t="inlineStr">
+        <is>
+          <t>Restrict workspace admins</t>
+        </is>
+      </c>
+      <c r="D98" s="21" t="inlineStr">
+        <is>
+          <t>Account admins can configure a workspace setting called RestrictWorkspaceAdmins to restrict workspace admins to only change a job owner to themselves and the job run as setting to a service principal that they have the Service Principal User role on.</t>
+        </is>
+      </c>
+      <c r="E98" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G98" s="21" t="n"/>
-      <c r="H98" s="15" t="n"/>
+      <c r="H98" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/admin/workspace-settings/restrict-workspace-admins</t>
+        </is>
+      </c>
       <c r="I98" s="15" t="n"/>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
-      <c r="L98" s="25" t="n"/>
+      <c r="L98" s="25" t="inlineStr">
+        <is>
+          <t>6b57dfc6-5546-41e1-a3e3-453a3c863964</t>
+        </is>
+      </c>
       <c r="M98" s="25" t="n"/>
       <c r="N98" s="25" t="n"/>
       <c r="O98" s="25" t="n"/>
       <c r="P98" s="25" t="n"/>
     </row>
     <row r="99" ht="16.5" customHeight="1">
-      <c r="A99" s="21" t="n"/>
-      <c r="B99" s="21" t="n"/>
-      <c r="C99" s="21" t="n"/>
-      <c r="D99" s="21" t="n"/>
-      <c r="E99" s="21" t="n"/>
+      <c r="A99" s="21" t="inlineStr">
+        <is>
+          <t>Identity and Access Management</t>
+        </is>
+      </c>
+      <c r="B99" s="21" t="inlineStr"/>
+      <c r="C99" s="21" t="inlineStr">
+        <is>
+          <t>Store passwords, secrets in Azure Key Vault</t>
+        </is>
+      </c>
+      <c r="D99" s="21" t="inlineStr">
+        <is>
+          <t>It�s important to note that even if customers use Azure Key Vault to store their secrets, access controls still need to be defined within Azure Databricks. This is because the same service identity is used to retrieve the secret for all users of an Azure Databricks workspace.</t>
+        </is>
+      </c>
+      <c r="E99" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="n"/>
       <c r="I99" s="15" t="n"/>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
-      <c r="L99" s="25" t="n"/>
+      <c r="L99" s="25" t="inlineStr">
+        <is>
+          <t>8b662d6c-15f5-4129-9539-8e6ded237dd1</t>
+        </is>
+      </c>
       <c r="M99" s="25" t="n"/>
       <c r="N99" s="25" t="n"/>
       <c r="O99" s="25" t="n"/>
       <c r="P99" s="25" t="n"/>
     </row>
     <row r="100" ht="16.5" customHeight="1">
-      <c r="A100" s="21" t="n"/>
-      <c r="B100" s="21" t="n"/>
-      <c r="C100" s="21" t="n"/>
+      <c r="A100" s="21" t="inlineStr"/>
+      <c r="B100" s="21" t="inlineStr"/>
+      <c r="C100" s="21" t="inlineStr">
+        <is>
+          <t>Regenerate/rotate keys if using them periodically</t>
+        </is>
+      </c>
       <c r="D100" s="21" t="n"/>
-      <c r="E100" s="21" t="n"/>
+      <c r="E100" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="n"/>
       <c r="I100" s="15" t="n"/>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
-      <c r="L100" s="25" t="n"/>
+      <c r="L100" s="25" t="inlineStr">
+        <is>
+          <t>42b16c21-d799-49a6-96f4-389a8f42c78e</t>
+        </is>
+      </c>
       <c r="M100" s="25" t="n"/>
       <c r="N100" s="25" t="n"/>
       <c r="O100" s="25" t="n"/>
       <c r="P100" s="25" t="n"/>
     </row>
     <row r="101" ht="16.5" customHeight="1">
-      <c r="A101" s="21" t="n"/>
-      <c r="B101" s="21" t="n"/>
-      <c r="C101" s="21" t="n"/>
-      <c r="D101" s="21" t="n"/>
-      <c r="E101" s="21" t="n"/>
+      <c r="A101" s="21" t="inlineStr">
+        <is>
+          <t>Identity and Access Management</t>
+        </is>
+      </c>
+      <c r="B101" s="21" t="inlineStr"/>
+      <c r="C101" s="21" t="inlineStr">
+        <is>
+          <t>Use clusters that support user isolation.</t>
+        </is>
+      </c>
+      <c r="D101" s="21" t="inlineStr">
+        <is>
+          <t>Clusters with user isolation include enforcement such that each user runs as a different non-privileged user account on the cluster host. Languages are also limited to those that can be implemented in an isolated manner (SQL and Python), and Spark APIs must be on an allowlist of those we believe to be isolation-safe.</t>
+        </is>
+      </c>
+      <c r="E101" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="n"/>
       <c r="I101" s="15" t="n"/>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
-      <c r="L101" s="25" t="n"/>
+      <c r="L101" s="25" t="inlineStr">
+        <is>
+          <t>78c06a73-a22a-4495-9e7a-8dc4a20e27c3</t>
+        </is>
+      </c>
       <c r="M101" s="25" t="n"/>
       <c r="N101" s="25" t="n"/>
       <c r="O101" s="25" t="n"/>
       <c r="P101" s="25" t="n"/>
     </row>
     <row r="102" ht="16.5" customHeight="1">
-      <c r="A102" s="21" t="n"/>
-      <c r="B102" s="21" t="n"/>
-      <c r="C102" s="21" t="n"/>
-      <c r="D102" s="21" t="n"/>
-      <c r="E102" s="21" t="n"/>
+      <c r="A102" s="21" t="inlineStr">
+        <is>
+          <t>Identity and Access Management</t>
+        </is>
+      </c>
+      <c r="B102" s="21" t="inlineStr"/>
+      <c r="C102" s="21" t="inlineStr">
+        <is>
+          <t>Use service principals to run production jobs. Use proper access control for workspace level (ACLs), account level (RBACs) and data level (Unity catalog) security controls</t>
+        </is>
+      </c>
+      <c r="D102" s="21" t="inlineStr">
+        <is>
+          <t>It is against security best practices to tie production workloads to individual user accounts, and so we recommend configuring Service Principals within Databricks. Service Principles separate administrator and user actions from the workload and prevent workloads from being impacted if a user leaves an organization. With Databricks, you can configure jobs to run as service principals and generate Personal Access Tokens for Service Principals.</t>
+        </is>
+      </c>
+      <c r="E102" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G102" s="21" t="n"/>
-      <c r="H102" s="15" t="n"/>
+      <c r="H102" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/security/auth/access-control/</t>
+        </is>
+      </c>
       <c r="I102" s="15" t="n"/>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
-      <c r="L102" s="25" t="n"/>
+      <c r="L102" s="25" t="inlineStr">
+        <is>
+          <t>e29711b1-352b-4eee-879b-588defc5972c</t>
+        </is>
+      </c>
       <c r="M102" s="25" t="n"/>
       <c r="N102" s="25" t="n"/>
       <c r="O102" s="25" t="n"/>
       <c r="P102" s="25" t="n"/>
     </row>
     <row r="103" ht="16.5" customHeight="1">
-      <c r="A103" s="21" t="n"/>
-      <c r="B103" s="21" t="n"/>
-      <c r="C103" s="21" t="n"/>
-      <c r="D103" s="21" t="n"/>
-      <c r="E103" s="21" t="n"/>
+      <c r="A103" s="21" t="inlineStr">
+        <is>
+          <t>Data Protection</t>
+        </is>
+      </c>
+      <c r="B103" s="21" t="inlineStr"/>
+      <c r="C103" s="21" t="inlineStr">
+        <is>
+          <t>Avoid storing production data in DBFS.</t>
+        </is>
+      </c>
+      <c r="D103" s="21" t="inlineStr">
+        <is>
+          <t>By default, DBFS is a filesystem that is accessible to all users of the given workspace and can be accessed via API. This is not necessarily a major data exfiltration concern as you can limit access to accessing data via the DBFS API or Databricks  cli using IP access lists or private network access. However, as use of Azure Databricks grows and more users join a workspace, those users would have access to any data stored in DBFS, creating the potential for undesired information sharing. Databricks recommends that our customers do not store production data in DBFS.</t>
+        </is>
+      </c>
+      <c r="E103" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="n"/>
       <c r="I103" s="15" t="n"/>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
-      <c r="L103" s="25" t="n"/>
+      <c r="L103" s="25" t="inlineStr">
+        <is>
+          <t>d4cd21b0-7703-46e5-b6b4-bfd3d503547c</t>
+        </is>
+      </c>
       <c r="M103" s="25" t="n"/>
       <c r="N103" s="25" t="n"/>
       <c r="O103" s="25" t="n"/>
       <c r="P103" s="25" t="n"/>
     </row>
     <row r="104" ht="16.5" customHeight="1">
-      <c r="A104" s="21" t="n"/>
-      <c r="B104" s="21" t="n"/>
-      <c r="C104" s="21" t="n"/>
-      <c r="D104" s="21" t="n"/>
-      <c r="E104" s="21" t="n"/>
+      <c r="A104" s="21" t="inlineStr">
+        <is>
+          <t>Data Protection</t>
+        </is>
+      </c>
+      <c r="B104" s="21" t="inlineStr"/>
+      <c r="C104" s="21" t="inlineStr">
+        <is>
+          <t>Encrypt storage and restrict access.</t>
+        </is>
+      </c>
+      <c r="D104" s="21" t="inlineStr">
+        <is>
+          <t>For the storage accounts that you manage, it is your responsibility to ensure that the storage accounts are protected according to your requirements. Examples might include:  Encryption with your customer-managed key, Restrict access to trusted networks with a storage firewall, Anonymous public access is not allowed</t>
+        </is>
+      </c>
+      <c r="E104" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G104" s="21" t="n"/>
-      <c r="H104" s="15" t="n"/>
+      <c r="H104" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/security/keys/customer-managed-keys</t>
+        </is>
+      </c>
       <c r="I104" s="15" t="n"/>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
-      <c r="L104" s="25" t="n"/>
+      <c r="L104" s="25" t="inlineStr">
+        <is>
+          <t>1447dc56-028a-471f-bf1c-e15dd3f0d5e8</t>
+        </is>
+      </c>
       <c r="M104" s="25" t="n"/>
       <c r="N104" s="25" t="n"/>
       <c r="O104" s="25" t="n"/>
       <c r="P104" s="25" t="n"/>
     </row>
     <row r="105" ht="16.5" customHeight="1">
-      <c r="A105" s="21" t="n"/>
-      <c r="B105" s="21" t="n"/>
-      <c r="C105" s="21" t="n"/>
-      <c r="D105" s="21" t="n"/>
-      <c r="E105" s="21" t="n"/>
+      <c r="A105" s="21" t="inlineStr">
+        <is>
+          <t>Data Protection</t>
+        </is>
+      </c>
+      <c r="B105" s="21" t="inlineStr"/>
+      <c r="C105" s="21" t="inlineStr">
+        <is>
+          <t>Add a customer-managed key for managed services and workspace storage</t>
+        </is>
+      </c>
+      <c r="D105" s="21" t="inlineStr">
+        <is>
+          <t>Add a customer-managed key for select data stored within the Azure Databricks control plane, such as notebooks, secrets, Databricks SQL queries, and Databricks SQL query history and  for the root storage account used for DBFS. Azure Databricks requires access to this key for ongoing operations. You can revoke access to the key to prevent Azure Databricks from accessing encrypted data within the control plane (or in our backups). This is like a �nuclear option� where the workspace ceases to function, but it provides an emergency control for extreme situations. This feature requires the Premium pricing tier.</t>
+        </is>
+      </c>
+      <c r="E105" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G105" s="21" t="n"/>
-      <c r="H105" s="15" t="n"/>
+      <c r="H105" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/security/keys/customer-managed-keys</t>
+        </is>
+      </c>
       <c r="I105" s="15" t="n"/>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
-      <c r="L105" s="25" t="n"/>
+      <c r="L105" s="25" t="inlineStr">
+        <is>
+          <t>72d42e36-11cc-457b-9a4b-1410e43a58a9</t>
+        </is>
+      </c>
       <c r="M105" s="25" t="n"/>
       <c r="N105" s="25" t="n"/>
       <c r="O105" s="25" t="n"/>
       <c r="P105" s="25" t="n"/>
     </row>
     <row r="106" ht="16.5" customHeight="1">
-      <c r="A106" s="21" t="n"/>
-      <c r="B106" s="21" t="n"/>
-      <c r="C106" s="21" t="n"/>
-      <c r="D106" s="21" t="n"/>
-      <c r="E106" s="21" t="n"/>
+      <c r="A106" s="21" t="inlineStr">
+        <is>
+          <t>Networking</t>
+        </is>
+      </c>
+      <c r="B106" s="21" t="inlineStr"/>
+      <c r="C106" s="21" t="inlineStr">
+        <is>
+          <t>Enable IP access lists to restrict access to certain IP addresses.</t>
+        </is>
+      </c>
+      <c r="D106" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Configure IP access lists that restrict the IP addresses that can authenticate to Databricks at account console and workspace level by checking if the user or API client is coming from a known good IP address range such as a VPN or office network. Established user sessions do not work if the user moves to a bad IP address, such as when disconnecting from the VPN. </t>
+        </is>
+      </c>
+      <c r="E106" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G106" s="21" t="n"/>
-      <c r="H106" s="15" t="n"/>
+      <c r="H106" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/security/network/front-end/ip-access-list</t>
+        </is>
+      </c>
       <c r="I106" s="15" t="n"/>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
-      <c r="L106" s="25" t="n"/>
+      <c r="L106" s="25" t="inlineStr">
+        <is>
+          <t>277de183-b1ac-4252-a9a9-b64608489a8f</t>
+        </is>
+      </c>
       <c r="M106" s="25" t="n"/>
       <c r="N106" s="25" t="n"/>
       <c r="O106" s="25" t="n"/>
       <c r="P106" s="25" t="n"/>
     </row>
     <row r="107" ht="16.5" customHeight="1">
-      <c r="A107" s="21" t="n"/>
-      <c r="B107" s="21" t="n"/>
-      <c r="C107" s="21" t="n"/>
-      <c r="D107" s="21" t="n"/>
-      <c r="E107" s="21" t="n"/>
+      <c r="A107" s="21" t="inlineStr">
+        <is>
+          <t>Networking</t>
+        </is>
+      </c>
+      <c r="B107" s="21" t="inlineStr"/>
+      <c r="C107" s="21" t="inlineStr">
+        <is>
+          <t>Configure and use Azure Private Link to access Azure resources.</t>
+        </is>
+      </c>
+      <c r="D107" s="21" t="inlineStr">
+        <is>
+          <t>Azure Private Link provides a private network route from one Azure environment to another. Private Link can be configured both between Azure Databricks users and the control plane, and also between the control plane and the data plane. Between Databricks users and the control plane, Private Link provides strong controls that limit the source for inbound requests. If a company already routes traffic through an Azure environment, they can use Private Link so that the communication between users and the Azure Databricks control plane does not traverse public IP addresses. This feature requires the Premium pricing tier. Use Azure Private Link to connect from Azure Databricks to your Azure resources. Not only does Private Link ensure</t>
+        </is>
+      </c>
+      <c r="E107" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G107" s="21" t="n"/>
-      <c r="H107" s="15" t="n"/>
+      <c r="H107" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/security/network/classic/private-link</t>
+        </is>
+      </c>
       <c r="I107" s="15" t="n"/>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
-      <c r="L107" s="25" t="n"/>
+      <c r="L107" s="25" t="inlineStr">
+        <is>
+          <t>82db8eb9-d1ba-473b-86a5-a57eba8dd4b3</t>
+        </is>
+      </c>
       <c r="M107" s="25" t="n"/>
       <c r="N107" s="25" t="n"/>
       <c r="O107" s="25" t="n"/>
@@ -7518,7 +8472,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F75" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F108" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/datasecurity_checklist.en.xlsx
+++ b/spreadsheet/macrofree/datasecurity_checklist.en.xlsx
@@ -941,7 +941,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
